--- a/Lab4/CT_DD Test Results.xlsx
+++ b/Lab4/CT_DD Test Results.xlsx
@@ -14,12 +14,663 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>apple10-090-112.png</t>
-  </si>
-  <si>
-    <t>car14-000-000.png</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+  <si>
+    <t>obj100__10.png</t>
+  </si>
+  <si>
+    <t>obj100__110.png</t>
+  </si>
+  <si>
+    <t>obj100__160.png</t>
+  </si>
+  <si>
+    <t>obj100__210.png</t>
+  </si>
+  <si>
+    <t>obj100__260.png</t>
+  </si>
+  <si>
+    <t>obj100__310.png</t>
+  </si>
+  <si>
+    <t>obj100__60.png</t>
+  </si>
+  <si>
+    <t>obj70__210.png</t>
+  </si>
+  <si>
+    <t>obj70__260.png</t>
+  </si>
+  <si>
+    <t>obj70__310.png</t>
+  </si>
+  <si>
+    <t>obj71__0.png</t>
+  </si>
+  <si>
+    <t>obj71__100.png</t>
+  </si>
+  <si>
+    <t>obj71__150.png</t>
+  </si>
+  <si>
+    <t>obj71__200.png</t>
+  </si>
+  <si>
+    <t>obj71__250.png</t>
+  </si>
+  <si>
+    <t>obj71__300.png</t>
+  </si>
+  <si>
+    <t>obj71__350.png</t>
+  </si>
+  <si>
+    <t>obj71__50.png</t>
+  </si>
+  <si>
+    <t>obj72__140.png</t>
+  </si>
+  <si>
+    <t>obj72__190.png</t>
+  </si>
+  <si>
+    <t>obj72__240.png</t>
+  </si>
+  <si>
+    <t>obj72__290.png</t>
+  </si>
+  <si>
+    <t>obj72__340.png</t>
+  </si>
+  <si>
+    <t>obj72__40.png</t>
+  </si>
+  <si>
+    <t>obj72__90.png</t>
+  </si>
+  <si>
+    <t>obj73__130.png</t>
+  </si>
+  <si>
+    <t>obj73__180.png</t>
+  </si>
+  <si>
+    <t>obj73__230.png</t>
+  </si>
+  <si>
+    <t>obj73__280.png</t>
+  </si>
+  <si>
+    <t>obj73__30.png</t>
+  </si>
+  <si>
+    <t>obj73__330.png</t>
+  </si>
+  <si>
+    <t>obj73__80.png</t>
+  </si>
+  <si>
+    <t>obj74__120.png</t>
+  </si>
+  <si>
+    <t>obj74__170.png</t>
+  </si>
+  <si>
+    <t>obj74__20.png</t>
+  </si>
+  <si>
+    <t>obj74__220.png</t>
+  </si>
+  <si>
+    <t>obj74__270.png</t>
+  </si>
+  <si>
+    <t>obj74__320.png</t>
+  </si>
+  <si>
+    <t>obj74__70.png</t>
+  </si>
+  <si>
+    <t>obj75__10.png</t>
+  </si>
+  <si>
+    <t>obj75__110.png</t>
+  </si>
+  <si>
+    <t>obj75__160.png</t>
+  </si>
+  <si>
+    <t>obj75__210.png</t>
+  </si>
+  <si>
+    <t>obj75__260.png</t>
+  </si>
+  <si>
+    <t>obj75__310.png</t>
+  </si>
+  <si>
+    <t>obj75__60.png</t>
+  </si>
+  <si>
+    <t>obj76__0.png</t>
+  </si>
+  <si>
+    <t>obj76__100.png</t>
+  </si>
+  <si>
+    <t>obj76__150.png</t>
+  </si>
+  <si>
+    <t>obj76__200.png</t>
+  </si>
+  <si>
+    <t>obj76__250.png</t>
+  </si>
+  <si>
+    <t>obj76__300.png</t>
+  </si>
+  <si>
+    <t>obj76__350.png</t>
+  </si>
+  <si>
+    <t>obj76__50.png</t>
+  </si>
+  <si>
+    <t>obj77__140.png</t>
+  </si>
+  <si>
+    <t>obj77__190.png</t>
+  </si>
+  <si>
+    <t>obj77__240.png</t>
+  </si>
+  <si>
+    <t>obj77__290.png</t>
+  </si>
+  <si>
+    <t>obj77__340.png</t>
+  </si>
+  <si>
+    <t>obj77__40.png</t>
+  </si>
+  <si>
+    <t>obj77__90.png</t>
+  </si>
+  <si>
+    <t>obj78__130.png</t>
+  </si>
+  <si>
+    <t>obj78__180.png</t>
+  </si>
+  <si>
+    <t>obj78__230.png</t>
+  </si>
+  <si>
+    <t>obj78__280.png</t>
+  </si>
+  <si>
+    <t>obj78__30.png</t>
+  </si>
+  <si>
+    <t>obj78__330.png</t>
+  </si>
+  <si>
+    <t>obj78__80.png</t>
+  </si>
+  <si>
+    <t>obj79__120.png</t>
+  </si>
+  <si>
+    <t>obj79__170.png</t>
+  </si>
+  <si>
+    <t>obj79__20.png</t>
+  </si>
+  <si>
+    <t>obj79__220.png</t>
+  </si>
+  <si>
+    <t>obj79__270.png</t>
+  </si>
+  <si>
+    <t>obj79__320.png</t>
+  </si>
+  <si>
+    <t>obj79__70.png</t>
+  </si>
+  <si>
+    <t>obj80__10.png</t>
+  </si>
+  <si>
+    <t>obj80__110.png</t>
+  </si>
+  <si>
+    <t>obj80__160.png</t>
+  </si>
+  <si>
+    <t>obj80__210.png</t>
+  </si>
+  <si>
+    <t>obj80__260.png</t>
+  </si>
+  <si>
+    <t>obj80__310.png</t>
+  </si>
+  <si>
+    <t>obj80__60.png</t>
+  </si>
+  <si>
+    <t>obj81__0.png</t>
+  </si>
+  <si>
+    <t>obj81__100.png</t>
+  </si>
+  <si>
+    <t>obj81__150.png</t>
+  </si>
+  <si>
+    <t>obj81__200.png</t>
+  </si>
+  <si>
+    <t>obj81__250.png</t>
+  </si>
+  <si>
+    <t>obj81__300.png</t>
+  </si>
+  <si>
+    <t>obj81__350.png</t>
+  </si>
+  <si>
+    <t>obj81__50.png</t>
+  </si>
+  <si>
+    <t>obj82__140.png</t>
+  </si>
+  <si>
+    <t>obj82__190.png</t>
+  </si>
+  <si>
+    <t>obj82__240.png</t>
+  </si>
+  <si>
+    <t>obj82__290.png</t>
+  </si>
+  <si>
+    <t>obj82__340.png</t>
+  </si>
+  <si>
+    <t>obj82__40.png</t>
+  </si>
+  <si>
+    <t>obj82__90.png</t>
+  </si>
+  <si>
+    <t>obj83__130.png</t>
+  </si>
+  <si>
+    <t>obj83__180.png</t>
+  </si>
+  <si>
+    <t>obj83__230.png</t>
+  </si>
+  <si>
+    <t>obj83__280.png</t>
+  </si>
+  <si>
+    <t>obj83__30.png</t>
+  </si>
+  <si>
+    <t>obj83__330.png</t>
+  </si>
+  <si>
+    <t>obj83__80.png</t>
+  </si>
+  <si>
+    <t>obj84__120.png</t>
+  </si>
+  <si>
+    <t>obj84__170.png</t>
+  </si>
+  <si>
+    <t>obj84__20.png</t>
+  </si>
+  <si>
+    <t>obj84__220.png</t>
+  </si>
+  <si>
+    <t>obj84__270.png</t>
+  </si>
+  <si>
+    <t>obj84__320.png</t>
+  </si>
+  <si>
+    <t>obj84__70.png</t>
+  </si>
+  <si>
+    <t>obj85__10.png</t>
+  </si>
+  <si>
+    <t>obj85__110.png</t>
+  </si>
+  <si>
+    <t>obj85__160.png</t>
+  </si>
+  <si>
+    <t>obj85__210.png</t>
+  </si>
+  <si>
+    <t>obj85__260.png</t>
+  </si>
+  <si>
+    <t>obj85__310.png</t>
+  </si>
+  <si>
+    <t>obj85__60.png</t>
+  </si>
+  <si>
+    <t>obj86__0.png</t>
+  </si>
+  <si>
+    <t>obj86__100.png</t>
+  </si>
+  <si>
+    <t>obj86__150.png</t>
+  </si>
+  <si>
+    <t>obj86__200.png</t>
+  </si>
+  <si>
+    <t>obj86__250.png</t>
+  </si>
+  <si>
+    <t>obj86__300.png</t>
+  </si>
+  <si>
+    <t>obj86__350.png</t>
+  </si>
+  <si>
+    <t>obj86__50.png</t>
+  </si>
+  <si>
+    <t>obj87__140.png</t>
+  </si>
+  <si>
+    <t>obj87__190.png</t>
+  </si>
+  <si>
+    <t>obj87__240.png</t>
+  </si>
+  <si>
+    <t>obj87__290.png</t>
+  </si>
+  <si>
+    <t>obj87__340.png</t>
+  </si>
+  <si>
+    <t>obj87__40.png</t>
+  </si>
+  <si>
+    <t>obj87__90.png</t>
+  </si>
+  <si>
+    <t>obj88__130.png</t>
+  </si>
+  <si>
+    <t>obj88__180.png</t>
+  </si>
+  <si>
+    <t>obj88__230.png</t>
+  </si>
+  <si>
+    <t>obj88__280.png</t>
+  </si>
+  <si>
+    <t>obj88__30.png</t>
+  </si>
+  <si>
+    <t>obj88__330.png</t>
+  </si>
+  <si>
+    <t>obj88__80.png</t>
+  </si>
+  <si>
+    <t>obj89__120.png</t>
+  </si>
+  <si>
+    <t>obj89__170.png</t>
+  </si>
+  <si>
+    <t>obj89__20.png</t>
+  </si>
+  <si>
+    <t>obj89__220.png</t>
+  </si>
+  <si>
+    <t>obj89__270.png</t>
+  </si>
+  <si>
+    <t>obj89__320.png</t>
+  </si>
+  <si>
+    <t>obj89__70.png</t>
+  </si>
+  <si>
+    <t>obj90__10.png</t>
+  </si>
+  <si>
+    <t>obj90__110.png</t>
+  </si>
+  <si>
+    <t>obj90__160.png</t>
+  </si>
+  <si>
+    <t>obj90__210.png</t>
+  </si>
+  <si>
+    <t>obj90__260.png</t>
+  </si>
+  <si>
+    <t>obj90__310.png</t>
+  </si>
+  <si>
+    <t>obj90__60.png</t>
+  </si>
+  <si>
+    <t>obj91__0.png</t>
+  </si>
+  <si>
+    <t>obj91__100.png</t>
+  </si>
+  <si>
+    <t>obj91__150.png</t>
+  </si>
+  <si>
+    <t>obj91__200.png</t>
+  </si>
+  <si>
+    <t>obj91__250.png</t>
+  </si>
+  <si>
+    <t>obj91__300.png</t>
+  </si>
+  <si>
+    <t>obj91__350.png</t>
+  </si>
+  <si>
+    <t>obj91__50.png</t>
+  </si>
+  <si>
+    <t>obj92__140.png</t>
+  </si>
+  <si>
+    <t>obj92__190.png</t>
+  </si>
+  <si>
+    <t>obj92__240.png</t>
+  </si>
+  <si>
+    <t>obj92__290.png</t>
+  </si>
+  <si>
+    <t>obj92__340.png</t>
+  </si>
+  <si>
+    <t>obj92__40.png</t>
+  </si>
+  <si>
+    <t>obj92__90.png</t>
+  </si>
+  <si>
+    <t>obj93__130.png</t>
+  </si>
+  <si>
+    <t>obj93__180.png</t>
+  </si>
+  <si>
+    <t>obj93__230.png</t>
+  </si>
+  <si>
+    <t>obj93__280.png</t>
+  </si>
+  <si>
+    <t>obj93__30.png</t>
+  </si>
+  <si>
+    <t>obj93__330.png</t>
+  </si>
+  <si>
+    <t>obj93__80.png</t>
+  </si>
+  <si>
+    <t>obj94__120.png</t>
+  </si>
+  <si>
+    <t>obj94__170.png</t>
+  </si>
+  <si>
+    <t>obj94__20.png</t>
+  </si>
+  <si>
+    <t>obj94__220.png</t>
+  </si>
+  <si>
+    <t>obj94__270.png</t>
+  </si>
+  <si>
+    <t>obj94__320.png</t>
+  </si>
+  <si>
+    <t>obj94__70.png</t>
+  </si>
+  <si>
+    <t>obj95__10.png</t>
+  </si>
+  <si>
+    <t>obj95__110.png</t>
+  </si>
+  <si>
+    <t>obj95__160.png</t>
+  </si>
+  <si>
+    <t>obj95__210.png</t>
+  </si>
+  <si>
+    <t>obj95__260.png</t>
+  </si>
+  <si>
+    <t>obj95__310.png</t>
+  </si>
+  <si>
+    <t>obj95__60.png</t>
+  </si>
+  <si>
+    <t>obj96__0.png</t>
+  </si>
+  <si>
+    <t>obj96__100.png</t>
+  </si>
+  <si>
+    <t>obj96__150.png</t>
+  </si>
+  <si>
+    <t>obj96__200.png</t>
+  </si>
+  <si>
+    <t>obj96__250.png</t>
+  </si>
+  <si>
+    <t>obj96__300.png</t>
+  </si>
+  <si>
+    <t>obj96__350.png</t>
+  </si>
+  <si>
+    <t>obj96__50.png</t>
+  </si>
+  <si>
+    <t>obj97__140.png</t>
+  </si>
+  <si>
+    <t>obj97__190.png</t>
+  </si>
+  <si>
+    <t>obj97__240.png</t>
+  </si>
+  <si>
+    <t>obj97__290.png</t>
+  </si>
+  <si>
+    <t>obj97__340.png</t>
+  </si>
+  <si>
+    <t>obj97__40.png</t>
+  </si>
+  <si>
+    <t>obj97__90.png</t>
+  </si>
+  <si>
+    <t>obj98__130.png</t>
+  </si>
+  <si>
+    <t>obj98__180.png</t>
+  </si>
+  <si>
+    <t>obj98__230.png</t>
+  </si>
+  <si>
+    <t>obj98__280.png</t>
+  </si>
+  <si>
+    <t>obj98__30.png</t>
+  </si>
+  <si>
+    <t>obj98__330.png</t>
+  </si>
+  <si>
+    <t>obj98__80.png</t>
+  </si>
+  <si>
+    <t>obj99__120.png</t>
+  </si>
+  <si>
+    <t>obj99__170.png</t>
+  </si>
+  <si>
+    <t>obj99__20.png</t>
+  </si>
+  <si>
+    <t>obj99__220.png</t>
+  </si>
+  <si>
+    <t>obj99__270.png</t>
+  </si>
+  <si>
+    <t>obj99__320.png</t>
+  </si>
+  <si>
+    <t>obj99__70.png</t>
   </si>
   <si>
     <t>File Name</t>
@@ -378,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I4"/>
+  <dimension ref="A2:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,31 +1037,31 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -418,28 +1069,28 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>113.0935974121094</v>
+        <v>40.58258056640625</v>
       </c>
       <c r="C3">
-        <v>45.68266199774514</v>
+        <v>29.29497521808436</v>
       </c>
       <c r="D3">
-        <v>2086.905607200228</v>
+        <v>858.195573028177</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -447,28 +1098,6321 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>112.3522186279297</v>
+        <v>55.85711669921875</v>
       </c>
       <c r="C4">
-        <v>40.11572286484195</v>
+        <v>34.66066891472616</v>
       </c>
       <c r="D4">
-        <v>1609.271220968803</v>
+        <v>1201.361969616264</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>42.69171142578125</v>
+      </c>
+      <c r="C5">
+        <v>33.26541017795136</v>
+      </c>
+      <c r="D5">
+        <v>1106.58751430735</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>42.60394287109375</v>
+      </c>
+      <c r="C6">
+        <v>32.5021267570464</v>
+      </c>
+      <c r="D6">
+        <v>1056.388243731111</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>53</v>
+      </c>
+      <c r="I6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>62.304931640625</v>
+      </c>
+      <c r="C7">
+        <v>44.12926745581365</v>
+      </c>
+      <c r="D7">
+        <v>1947.392246186733</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>108</v>
+      </c>
+      <c r="I7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>48.78485107421875</v>
+      </c>
+      <c r="C8">
+        <v>38.07165725875374</v>
+      </c>
+      <c r="D8">
+        <v>1449.451086428016</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>44.741943359375</v>
+      </c>
+      <c r="C9">
+        <v>33.04644183422842</v>
+      </c>
+      <c r="D9">
+        <v>1092.067317903042</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>57</v>
+      </c>
+      <c r="I9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>109.197998046875</v>
+      </c>
+      <c r="C10">
+        <v>53.49213312758296</v>
+      </c>
+      <c r="D10">
+        <v>2861.408306539059</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>57.75</v>
+      </c>
+      <c r="G10">
+        <v>122</v>
+      </c>
+      <c r="H10">
+        <v>148</v>
+      </c>
+      <c r="I10">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>124.3975830078125</v>
+      </c>
+      <c r="C11">
+        <v>60.38856528681847</v>
+      </c>
+      <c r="D11">
+        <v>3646.778817400336</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>62</v>
+      </c>
+      <c r="G11">
+        <v>140</v>
+      </c>
+      <c r="H11">
+        <v>166</v>
+      </c>
+      <c r="I11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>123.1531372070312</v>
+      </c>
+      <c r="C12">
+        <v>58.63697508684829</v>
+      </c>
+      <c r="D12">
+        <v>3438.294847335666</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>85</v>
+      </c>
+      <c r="G12">
+        <v>138</v>
+      </c>
+      <c r="H12">
+        <v>162</v>
+      </c>
+      <c r="I12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>80.26568603515625</v>
+      </c>
+      <c r="C13">
+        <v>59.09863336919479</v>
+      </c>
+      <c r="D13">
+        <v>3492.648466106504</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>62</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>70.08258056640625</v>
+      </c>
+      <c r="C14">
+        <v>54.33668912834606</v>
+      </c>
+      <c r="D14">
+        <v>2952.475785430521</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>54</v>
+      </c>
+      <c r="H14">
+        <v>76</v>
+      </c>
+      <c r="I14">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>70.98455810546875</v>
+      </c>
+      <c r="C15">
+        <v>56.22247432707004</v>
+      </c>
+      <c r="D15">
+        <v>3160.96661945805</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>78</v>
+      </c>
+      <c r="I15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>73.5545654296875</v>
+      </c>
+      <c r="C16">
+        <v>57.30858468050518</v>
+      </c>
+      <c r="D16">
+        <v>3284.273878082633</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>76.10577392578125</v>
+      </c>
+      <c r="C17">
+        <v>58.10086113232773</v>
+      </c>
+      <c r="D17">
+        <v>3375.710064318031</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>60</v>
+      </c>
+      <c r="H17">
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>77.93829345703125</v>
+      </c>
+      <c r="C18">
+        <v>59.9696530792624</v>
+      </c>
+      <c r="D18">
+        <v>3596.359290447086</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <v>113</v>
+      </c>
+      <c r="I18">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>81.33740234375</v>
+      </c>
+      <c r="C19">
+        <v>59.95807395434481</v>
+      </c>
+      <c r="D19">
+        <v>3594.970632314682</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>59</v>
+      </c>
+      <c r="H19">
+        <v>125</v>
+      </c>
+      <c r="I19">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>76.57318115234375</v>
+      </c>
+      <c r="C20">
+        <v>55.33037772513795</v>
+      </c>
+      <c r="D20">
+        <v>3061.450699206442</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>64</v>
+      </c>
+      <c r="H20">
+        <v>102</v>
+      </c>
+      <c r="I20">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>70.58135986328125</v>
+      </c>
+      <c r="C21">
+        <v>59.36738209112725</v>
+      </c>
+      <c r="D21">
+        <v>3524.486056353897</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>26</v>
+      </c>
+      <c r="G21">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>94</v>
+      </c>
+      <c r="I21">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>68.77642822265625</v>
+      </c>
+      <c r="C22">
+        <v>57.03913475920146</v>
+      </c>
+      <c r="D22">
+        <v>3253.462894078344</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22">
+        <v>43</v>
+      </c>
+      <c r="H22">
+        <v>94</v>
+      </c>
+      <c r="I22">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>67.7021484375</v>
+      </c>
+      <c r="C23">
+        <v>56.43127392700648</v>
+      </c>
+      <c r="D23">
+        <v>3184.488677024841</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>41</v>
+      </c>
+      <c r="H23">
+        <v>89</v>
+      </c>
+      <c r="I23">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>71.631591796875</v>
+      </c>
+      <c r="C24">
+        <v>59.49507199594031</v>
+      </c>
+      <c r="D24">
+        <v>3539.66359180212</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>46</v>
+      </c>
+      <c r="H24">
+        <v>95</v>
+      </c>
+      <c r="I24">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>69.95806884765625</v>
+      </c>
+      <c r="C25">
+        <v>57.30476482255474</v>
+      </c>
+      <c r="D25">
+        <v>3283.836071368307</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>47</v>
+      </c>
+      <c r="H25">
+        <v>98</v>
+      </c>
+      <c r="I25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>69.03521728515625</v>
+      </c>
+      <c r="C26">
+        <v>56.63818781374328</v>
+      </c>
+      <c r="D26">
+        <v>3207.884318824857</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>43</v>
+      </c>
+      <c r="H26">
+        <v>92</v>
+      </c>
+      <c r="I26">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>67.56353759765625</v>
+      </c>
+      <c r="C27">
+        <v>56.87406198647035</v>
+      </c>
+      <c r="D27">
+        <v>3234.658926840872</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>89</v>
+      </c>
+      <c r="I27">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>74.41351318359375</v>
+      </c>
+      <c r="C28">
+        <v>53.16556783331107</v>
+      </c>
+      <c r="D28">
+        <v>2826.5776030384</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>53</v>
+      </c>
+      <c r="H28">
+        <v>121</v>
+      </c>
+      <c r="I28">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>71.1197509765625</v>
+      </c>
+      <c r="C29">
+        <v>50.55036396900545</v>
+      </c>
+      <c r="D29">
+        <v>2555.339297398925</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>45</v>
+      </c>
+      <c r="H29">
+        <v>119</v>
+      </c>
+      <c r="I29">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>67.36834716796875</v>
+      </c>
+      <c r="C30">
+        <v>47.55670573436785</v>
+      </c>
+      <c r="D30">
+        <v>2261.640260305256</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>40</v>
+      </c>
+      <c r="H30">
+        <v>110</v>
+      </c>
+      <c r="I30">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>67.027099609375</v>
+      </c>
+      <c r="C31">
+        <v>48.7328257306829</v>
+      </c>
+      <c r="D31">
+        <v>2374.888303697109</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>37</v>
+      </c>
+      <c r="H31">
+        <v>111</v>
+      </c>
+      <c r="I31">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>72.7449951171875</v>
+      </c>
+      <c r="C32">
+        <v>55.01089014034566</v>
+      </c>
+      <c r="D32">
+        <v>3026.198034033179</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>121</v>
+      </c>
+      <c r="I32">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>69.31085205078125</v>
+      </c>
+      <c r="C33">
+        <v>53.61640705852833</v>
+      </c>
+      <c r="D33">
+        <v>2874.719105865806</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>33</v>
+      </c>
+      <c r="H33">
+        <v>115</v>
+      </c>
+      <c r="I33">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>76.481689453125</v>
+      </c>
+      <c r="C34">
+        <v>55.3932202025787</v>
+      </c>
+      <c r="D34">
+        <v>3068.408844411373</v>
+      </c>
+      <c r="E34">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>125</v>
+      </c>
+      <c r="I34">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>89.63623046875</v>
+      </c>
+      <c r="C35">
+        <v>61.41924258898588</v>
+      </c>
+      <c r="D35">
+        <v>3772.323360204697</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>98</v>
+      </c>
+      <c r="H35">
+        <v>145</v>
+      </c>
+      <c r="I35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>84.52362060546875</v>
+      </c>
+      <c r="C36">
+        <v>61.52774382688165</v>
+      </c>
+      <c r="D36">
+        <v>3785.663260426372</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="G36">
+        <v>83</v>
+      </c>
+      <c r="H36">
+        <v>140</v>
+      </c>
+      <c r="I36">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>84.481689453125</v>
+      </c>
+      <c r="C37">
+        <v>61.2312952280924</v>
+      </c>
+      <c r="D37">
+        <v>3749.271515309811</v>
+      </c>
+      <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>82</v>
+      </c>
+      <c r="H37">
+        <v>142</v>
+      </c>
+      <c r="I37">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>97.77593994140625</v>
+      </c>
+      <c r="C38">
+        <v>61.90500992353617</v>
+      </c>
+      <c r="D38">
+        <v>3832.230253633112</v>
+      </c>
+      <c r="E38">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>112</v>
+      </c>
+      <c r="H38">
+        <v>156</v>
+      </c>
+      <c r="I38">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>97.438232421875</v>
+      </c>
+      <c r="C39">
+        <v>59.69871023818044</v>
+      </c>
+      <c r="D39">
+        <v>3563.93600410223</v>
+      </c>
+      <c r="E39">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>106</v>
+      </c>
+      <c r="H39">
+        <v>149</v>
+      </c>
+      <c r="I39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>96.00079345703125</v>
+      </c>
+      <c r="C40">
+        <v>62.01828471128964</v>
+      </c>
+      <c r="D40">
+        <v>3846.267638530582</v>
+      </c>
+      <c r="E40">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>105</v>
+      </c>
+      <c r="H40">
+        <v>154</v>
+      </c>
+      <c r="I40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>85.23345947265625</v>
+      </c>
+      <c r="C41">
+        <v>59.01970073044547</v>
+      </c>
+      <c r="D41">
+        <v>3483.325074311346</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>25</v>
+      </c>
+      <c r="G41">
+        <v>91</v>
+      </c>
+      <c r="H41">
+        <v>139</v>
+      </c>
+      <c r="I41">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>54.814453125</v>
+      </c>
+      <c r="C42">
+        <v>30.77369825025589</v>
+      </c>
+      <c r="D42">
+        <v>947.0205039978027</v>
+      </c>
+      <c r="E42">
+        <v>21</v>
+      </c>
+      <c r="F42">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>71</v>
+      </c>
+      <c r="I42">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>56.94940185546875</v>
+      </c>
+      <c r="C43">
+        <v>30.89584973967157</v>
+      </c>
+      <c r="D43">
+        <v>954.5535311363637</v>
+      </c>
+      <c r="E43">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>27</v>
+      </c>
+      <c r="G43">
+        <v>53</v>
+      </c>
+      <c r="H43">
+        <v>77</v>
+      </c>
+      <c r="I43">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>49.22454833984375</v>
+      </c>
+      <c r="C44">
+        <v>27.95503426640794</v>
+      </c>
+      <c r="D44">
+        <v>781.4839408360422</v>
+      </c>
+      <c r="E44">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>28</v>
+      </c>
+      <c r="G44">
+        <v>38</v>
+      </c>
+      <c r="H44">
+        <v>64</v>
+      </c>
+      <c r="I44">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>47.92144775390625</v>
+      </c>
+      <c r="C45">
+        <v>27.04265012412873</v>
+      </c>
+      <c r="D45">
+        <v>731.3049257360399</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>26</v>
+      </c>
+      <c r="G45">
+        <v>35</v>
+      </c>
+      <c r="H45">
+        <v>67</v>
+      </c>
+      <c r="I45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>53.718505859375</v>
+      </c>
+      <c r="C46">
+        <v>29.22600360020882</v>
+      </c>
+      <c r="D46">
+        <v>854.1592864394188</v>
+      </c>
+      <c r="E46">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>28</v>
+      </c>
+      <c r="G46">
+        <v>49</v>
+      </c>
+      <c r="H46">
+        <v>72</v>
+      </c>
+      <c r="I46">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>45.8052978515625</v>
+      </c>
+      <c r="C47">
+        <v>24.91285213348637</v>
+      </c>
+      <c r="D47">
+        <v>620.6502014249563</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>40</v>
+      </c>
+      <c r="H47">
+        <v>61</v>
+      </c>
+      <c r="I47">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>67.44818115234375</v>
+      </c>
+      <c r="C48">
+        <v>37.61526069653067</v>
+      </c>
+      <c r="D48">
+        <v>1414.907837267965</v>
+      </c>
+      <c r="E48">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <v>33</v>
+      </c>
+      <c r="G48">
+        <v>58</v>
+      </c>
+      <c r="H48">
+        <v>95</v>
+      </c>
+      <c r="I48">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>41.08978271484375</v>
+      </c>
+      <c r="C49">
+        <v>36.9680061619701</v>
+      </c>
+      <c r="D49">
+        <v>1366.633479591459</v>
+      </c>
+      <c r="E49">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>25</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+      <c r="H49">
+        <v>25</v>
+      </c>
+      <c r="I49">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>70.3505859375</v>
+      </c>
+      <c r="C50">
+        <v>50.95164814680117</v>
+      </c>
+      <c r="D50">
+        <v>2596.070448875427</v>
+      </c>
+      <c r="E50">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>25</v>
+      </c>
+      <c r="G50">
+        <v>44</v>
+      </c>
+      <c r="H50">
+        <v>125</v>
+      </c>
+      <c r="I50">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>41.35260009765625</v>
+      </c>
+      <c r="C51">
+        <v>38.21894485624949</v>
+      </c>
+      <c r="D51">
+        <v>1460.687745925039</v>
+      </c>
+      <c r="E51">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>25</v>
+      </c>
+      <c r="G51">
+        <v>25</v>
+      </c>
+      <c r="H51">
+        <v>25</v>
+      </c>
+      <c r="I51">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>40.6051025390625</v>
+      </c>
+      <c r="C52">
+        <v>36.32750588638081</v>
+      </c>
+      <c r="D52">
+        <v>1319.687683925033</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>25</v>
+      </c>
+      <c r="H52">
+        <v>25</v>
+      </c>
+      <c r="I52">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>57.6156005859375</v>
+      </c>
+      <c r="C53">
+        <v>49.33821380616303</v>
+      </c>
+      <c r="D53">
+        <v>2434.259341582656</v>
+      </c>
+      <c r="E53">
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <v>25</v>
+      </c>
+      <c r="G53">
+        <v>26</v>
+      </c>
+      <c r="H53">
+        <v>88</v>
+      </c>
+      <c r="I53">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>51.2733154296875</v>
+      </c>
+      <c r="C54">
+        <v>45.79803586088553</v>
+      </c>
+      <c r="D54">
+        <v>2097.460088714957</v>
+      </c>
+      <c r="E54">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
+      <c r="G54">
+        <v>25</v>
+      </c>
+      <c r="H54">
+        <v>62</v>
+      </c>
+      <c r="I54">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>41.60015869140625</v>
+      </c>
+      <c r="C55">
+        <v>38.3214311122947</v>
+      </c>
+      <c r="D55">
+        <v>1468.532082494348</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>25</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>25</v>
+      </c>
+      <c r="I55">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>42.60009765625</v>
+      </c>
+      <c r="C56">
+        <v>37.77289525839131</v>
+      </c>
+      <c r="D56">
+        <v>1426.791616201401</v>
+      </c>
+      <c r="E56">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>25</v>
+      </c>
+      <c r="G56">
+        <v>25</v>
+      </c>
+      <c r="H56">
+        <v>29</v>
+      </c>
+      <c r="I56">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>74.90350341796875</v>
+      </c>
+      <c r="C57">
+        <v>54.35850843150443</v>
+      </c>
+      <c r="D57">
+        <v>2954.847438897938</v>
+      </c>
+      <c r="E57">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>26</v>
+      </c>
+      <c r="G57">
+        <v>53.5</v>
+      </c>
+      <c r="H57">
+        <v>126.25</v>
+      </c>
+      <c r="I57">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>76.25604248046875</v>
+      </c>
+      <c r="C58">
+        <v>44.91919346738</v>
+      </c>
+      <c r="D58">
+        <v>2017.733941759914</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>26</v>
+      </c>
+      <c r="G58">
+        <v>85</v>
+      </c>
+      <c r="H58">
+        <v>108</v>
+      </c>
+      <c r="I58">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>71.0712890625</v>
+      </c>
+      <c r="C59">
+        <v>47.63421284433338</v>
+      </c>
+      <c r="D59">
+        <v>2269.018233299255</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>28</v>
+      </c>
+      <c r="G59">
+        <v>61</v>
+      </c>
+      <c r="H59">
+        <v>103</v>
+      </c>
+      <c r="I59">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>65.69305419921875</v>
+      </c>
+      <c r="C60">
+        <v>45.39184551498046</v>
+      </c>
+      <c r="D60">
+        <v>2060.419639255852</v>
+      </c>
+      <c r="E60">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>26</v>
+      </c>
+      <c r="G60">
+        <v>33</v>
+      </c>
+      <c r="H60">
+        <v>96</v>
+      </c>
+      <c r="I60">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>85.59173583984375</v>
+      </c>
+      <c r="C61">
+        <v>55.04863024597037</v>
+      </c>
+      <c r="D61">
+        <v>3030.351691957563</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>26</v>
+      </c>
+      <c r="G61">
+        <v>81</v>
+      </c>
+      <c r="H61">
+        <v>133</v>
+      </c>
+      <c r="I61">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>69.9805908203125</v>
+      </c>
+      <c r="C62">
+        <v>48.3360099981531</v>
+      </c>
+      <c r="D62">
+        <v>2336.369862541556</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>26</v>
+      </c>
+      <c r="G62">
+        <v>57</v>
+      </c>
+      <c r="H62">
+        <v>108</v>
+      </c>
+      <c r="I62">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>59.87701416015625</v>
+      </c>
+      <c r="C63">
+        <v>48.9089713097797</v>
+      </c>
+      <c r="D63">
+        <v>2392.087474580854</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>26</v>
+      </c>
+      <c r="G63">
+        <v>26</v>
+      </c>
+      <c r="H63">
+        <v>104</v>
+      </c>
+      <c r="I63">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>61.6895751953125</v>
+      </c>
+      <c r="C64">
+        <v>42.47091949383216</v>
+      </c>
+      <c r="D64">
+        <v>1803.779002651572</v>
+      </c>
+      <c r="E64">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>29</v>
+      </c>
+      <c r="G64">
+        <v>29</v>
+      </c>
+      <c r="H64">
+        <v>106</v>
+      </c>
+      <c r="I64">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>42.52850341796875</v>
+      </c>
+      <c r="C65">
+        <v>31.44821967239126</v>
+      </c>
+      <c r="D65">
+        <v>988.9905205629766</v>
+      </c>
+      <c r="E65">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>27</v>
+      </c>
+      <c r="G65">
+        <v>27</v>
+      </c>
+      <c r="H65">
+        <v>37</v>
+      </c>
+      <c r="I65">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>49.258056640625</v>
+      </c>
+      <c r="C66">
+        <v>34.91639964812261</v>
+      </c>
+      <c r="D66">
+        <v>1219.154964387417</v>
+      </c>
+      <c r="E66">
+        <v>16</v>
+      </c>
+      <c r="F66">
+        <v>28</v>
+      </c>
+      <c r="G66">
+        <v>28</v>
+      </c>
+      <c r="H66">
+        <v>67</v>
+      </c>
+      <c r="I66">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>69.21343994140625</v>
+      </c>
+      <c r="C67">
+        <v>40.35070909108205</v>
+      </c>
+      <c r="D67">
+        <v>1628.179724153131</v>
+      </c>
+      <c r="E67">
+        <v>17</v>
+      </c>
+      <c r="F67">
+        <v>28</v>
+      </c>
+      <c r="G67">
+        <v>63.5</v>
+      </c>
+      <c r="H67">
+        <v>106</v>
+      </c>
+      <c r="I67">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>46.0294189453125</v>
+      </c>
+      <c r="C68">
+        <v>34.68566631913274</v>
+      </c>
+      <c r="D68">
+        <v>1203.095448002219</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>27</v>
+      </c>
+      <c r="G68">
+        <v>27</v>
+      </c>
+      <c r="H68">
+        <v>50</v>
+      </c>
+      <c r="I68">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>42.3302001953125</v>
+      </c>
+      <c r="C69">
+        <v>32.21806575199333</v>
+      </c>
+      <c r="D69">
+        <v>1038.003760799766</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <v>25</v>
+      </c>
+      <c r="G69">
+        <v>25</v>
+      </c>
+      <c r="H69">
+        <v>46</v>
+      </c>
+      <c r="I69">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>64.81439208984375</v>
+      </c>
+      <c r="C70">
+        <v>39.89411535352559</v>
+      </c>
+      <c r="D70">
+        <v>1591.540439840406</v>
+      </c>
+      <c r="E70">
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>26</v>
+      </c>
+      <c r="G70">
+        <v>55</v>
+      </c>
+      <c r="H70">
+        <v>106</v>
+      </c>
+      <c r="I70">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>76.2884521484375</v>
+      </c>
+      <c r="C71">
+        <v>56.11999776259517</v>
+      </c>
+      <c r="D71">
+        <v>3149.454148873687</v>
+      </c>
+      <c r="E71">
+        <v>14</v>
+      </c>
+      <c r="F71">
+        <v>26</v>
+      </c>
+      <c r="G71">
+        <v>59</v>
+      </c>
+      <c r="H71">
+        <v>113</v>
+      </c>
+      <c r="I71">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>63.20361328125</v>
+      </c>
+      <c r="C72">
+        <v>52.3059231008916</v>
+      </c>
+      <c r="D72">
+        <v>2735.909591436386</v>
+      </c>
+      <c r="E72">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>26</v>
+      </c>
+      <c r="G72">
+        <v>26</v>
+      </c>
+      <c r="H72">
+        <v>101</v>
+      </c>
+      <c r="I72">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>63.91253662109375</v>
+      </c>
+      <c r="C73">
+        <v>53.88958962709664</v>
+      </c>
+      <c r="D73">
+        <v>2904.087870176882</v>
+      </c>
+      <c r="E73">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>27</v>
+      </c>
+      <c r="G73">
+        <v>27</v>
+      </c>
+      <c r="H73">
+        <v>111</v>
+      </c>
+      <c r="I73">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>62.2978515625</v>
+      </c>
+      <c r="C74">
+        <v>52.79653771601201</v>
+      </c>
+      <c r="D74">
+        <v>2787.474394798279</v>
+      </c>
+      <c r="E74">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>27</v>
+      </c>
+      <c r="G74">
+        <v>28</v>
+      </c>
+      <c r="H74">
+        <v>79</v>
+      </c>
+      <c r="I74">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>98.59442138671875</v>
+      </c>
+      <c r="C75">
+        <v>61.9499259942696</v>
+      </c>
+      <c r="D75">
+        <v>3837.79333069548</v>
+      </c>
+      <c r="E75">
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <v>26</v>
+      </c>
+      <c r="G75">
+        <v>108</v>
+      </c>
+      <c r="H75">
+        <v>147</v>
+      </c>
+      <c r="I75">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>67.16986083984375</v>
+      </c>
+      <c r="C76">
+        <v>57.62990817060287</v>
+      </c>
+      <c r="D76">
+        <v>3321.206315752119</v>
+      </c>
+      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>26</v>
+      </c>
+      <c r="G76">
+        <v>26</v>
+      </c>
+      <c r="H76">
+        <v>116</v>
+      </c>
+      <c r="I76">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>78.82391357421875</v>
+      </c>
+      <c r="C77">
+        <v>57.23011613894984</v>
+      </c>
+      <c r="D77">
+        <v>3275.286193277687</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+      <c r="F77">
+        <v>26</v>
+      </c>
+      <c r="G77">
+        <v>61</v>
+      </c>
+      <c r="H77">
+        <v>130</v>
+      </c>
+      <c r="I77">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>63.635009765625</v>
+      </c>
+      <c r="C78">
+        <v>50.45165717611574</v>
+      </c>
+      <c r="D78">
+        <v>2545.369711816311</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>28</v>
+      </c>
+      <c r="G78">
+        <v>29</v>
+      </c>
+      <c r="H78">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="I78">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>74.58367919921875</v>
+      </c>
+      <c r="C79">
+        <v>64.7455135370957</v>
+      </c>
+      <c r="D79">
+        <v>4191.981523182243</v>
+      </c>
+      <c r="E79">
+        <v>15</v>
+      </c>
+      <c r="F79">
+        <v>25</v>
+      </c>
+      <c r="G79">
+        <v>26</v>
+      </c>
+      <c r="H79">
+        <v>148</v>
+      </c>
+      <c r="I79">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>72.98809814453125</v>
+      </c>
+      <c r="C80">
+        <v>56.20691746349537</v>
+      </c>
+      <c r="D80">
+        <v>3159.21757074818</v>
+      </c>
+      <c r="E80">
+        <v>20</v>
+      </c>
+      <c r="F80">
+        <v>28</v>
+      </c>
+      <c r="G80">
+        <v>29</v>
+      </c>
+      <c r="H80">
+        <v>131</v>
+      </c>
+      <c r="I80">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>59.31195068359375</v>
+      </c>
+      <c r="C81">
+        <v>47.72665817077403</v>
+      </c>
+      <c r="D81">
+        <v>2277.833900149912</v>
+      </c>
+      <c r="E81">
+        <v>23</v>
+      </c>
+      <c r="F81">
+        <v>27</v>
+      </c>
+      <c r="G81">
+        <v>29</v>
+      </c>
+      <c r="H81">
+        <v>83</v>
+      </c>
+      <c r="I81">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>76.46539306640625</v>
+      </c>
+      <c r="C82">
+        <v>60.91595291023288</v>
+      </c>
+      <c r="D82">
+        <v>3710.75331896171</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>29</v>
+      </c>
+      <c r="G82">
+        <v>37</v>
+      </c>
+      <c r="H82">
+        <v>125</v>
+      </c>
+      <c r="I82">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>85.72186279296875</v>
+      </c>
+      <c r="C83">
+        <v>55.58612994561489</v>
+      </c>
+      <c r="D83">
+        <v>3089.817842330784</v>
+      </c>
+      <c r="E83">
+        <v>22</v>
+      </c>
+      <c r="F83">
+        <v>33</v>
+      </c>
+      <c r="G83">
+        <v>68</v>
+      </c>
+      <c r="H83">
+        <v>132</v>
+      </c>
+      <c r="I83">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>75.706298828125</v>
+      </c>
+      <c r="C84">
+        <v>68.11245526250882</v>
+      </c>
+      <c r="D84">
+        <v>4639.306561887264</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>25</v>
+      </c>
+      <c r="G84">
+        <v>29</v>
+      </c>
+      <c r="H84">
+        <v>115</v>
+      </c>
+      <c r="I84">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>47.99609375</v>
+      </c>
+      <c r="C85">
+        <v>36.89140901293906</v>
+      </c>
+      <c r="D85">
+        <v>1360.976058959961</v>
+      </c>
+      <c r="E85">
+        <v>16</v>
+      </c>
+      <c r="F85">
+        <v>24</v>
+      </c>
+      <c r="G85">
+        <v>28</v>
+      </c>
+      <c r="H85">
+        <v>62</v>
+      </c>
+      <c r="I85">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>60.15399169921875</v>
+      </c>
+      <c r="C86">
+        <v>45.19037183921734</v>
+      </c>
+      <c r="D86">
+        <v>2042.169706966728</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>26</v>
+      </c>
+      <c r="G86">
+        <v>38</v>
+      </c>
+      <c r="H86">
+        <v>85</v>
+      </c>
+      <c r="I86">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>54.6129150390625</v>
+      </c>
+      <c r="C87">
+        <v>38.90845336630609</v>
+      </c>
+      <c r="D87">
+        <v>1513.867743358016</v>
+      </c>
+      <c r="E87">
+        <v>16</v>
+      </c>
+      <c r="F87">
+        <v>24</v>
+      </c>
+      <c r="G87">
+        <v>37</v>
+      </c>
+      <c r="H87">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>56.754638671875</v>
+      </c>
+      <c r="C88">
+        <v>38.31839687447269</v>
+      </c>
+      <c r="D88">
+        <v>1468.299539029598</v>
+      </c>
+      <c r="E88">
+        <v>19</v>
+      </c>
+      <c r="F88">
+        <v>28</v>
+      </c>
+      <c r="G88">
+        <v>39</v>
+      </c>
+      <c r="H88">
+        <v>78</v>
+      </c>
+      <c r="I88">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>42.7962646484375</v>
+      </c>
+      <c r="C89">
+        <v>28.93541806617517</v>
+      </c>
+      <c r="D89">
+        <v>837.2584186643362</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+      <c r="F89">
+        <v>25</v>
+      </c>
+      <c r="G89">
+        <v>27</v>
+      </c>
+      <c r="H89">
+        <v>55</v>
+      </c>
+      <c r="I89">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>57.32623291015625</v>
+      </c>
+      <c r="C90">
+        <v>38.17423601374181</v>
+      </c>
+      <c r="D90">
+        <v>1457.272295232862</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+      <c r="F90">
+        <v>34</v>
+      </c>
+      <c r="G90">
+        <v>36</v>
+      </c>
+      <c r="H90">
+        <v>75</v>
+      </c>
+      <c r="I90">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>47.74951171875</v>
+      </c>
+      <c r="C91">
+        <v>36.82911439002802</v>
+      </c>
+      <c r="D91">
+        <v>1356.383666753769</v>
+      </c>
+      <c r="E91">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>24</v>
+      </c>
+      <c r="G91">
+        <v>28</v>
+      </c>
+      <c r="H91">
+        <v>61</v>
+      </c>
+      <c r="I91">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>58.67706298828125</v>
+      </c>
+      <c r="C92">
+        <v>44.88000925500607</v>
+      </c>
+      <c r="D92">
+        <v>2014.215230729431</v>
+      </c>
+      <c r="E92">
+        <v>15</v>
+      </c>
+      <c r="F92">
+        <v>26</v>
+      </c>
+      <c r="G92">
+        <v>39</v>
+      </c>
+      <c r="H92">
+        <v>81</v>
+      </c>
+      <c r="I92">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>51.2735595703125</v>
+      </c>
+      <c r="C93">
+        <v>28.09940448388525</v>
+      </c>
+      <c r="D93">
+        <v>789.5765323489904</v>
+      </c>
+      <c r="E93">
+        <v>18</v>
+      </c>
+      <c r="F93">
+        <v>29</v>
+      </c>
+      <c r="G93">
+        <v>42</v>
+      </c>
+      <c r="H93">
+        <v>67</v>
+      </c>
+      <c r="I93">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>50.19915771484375</v>
+      </c>
+      <c r="C94">
+        <v>23.67967222602462</v>
+      </c>
+      <c r="D94">
+        <v>560.726876731962</v>
+      </c>
+      <c r="E94">
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <v>31</v>
+      </c>
+      <c r="G94">
+        <v>44</v>
+      </c>
+      <c r="H94">
+        <v>67</v>
+      </c>
+      <c r="I94">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>60.43780517578125</v>
+      </c>
+      <c r="C95">
+        <v>24.60160420898204</v>
+      </c>
+      <c r="D95">
+        <v>605.2389296554029</v>
+      </c>
+      <c r="E95">
+        <v>20</v>
+      </c>
+      <c r="F95">
+        <v>41</v>
+      </c>
+      <c r="G95">
+        <v>58</v>
+      </c>
+      <c r="H95">
+        <v>74</v>
+      </c>
+      <c r="I95">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>47.69622802734375</v>
+      </c>
+      <c r="C96">
+        <v>20.8481142458535</v>
+      </c>
+      <c r="D96">
+        <v>434.6438676081598</v>
+      </c>
+      <c r="E96">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>32</v>
+      </c>
+      <c r="G96">
+        <v>45</v>
+      </c>
+      <c r="H96">
+        <v>53</v>
+      </c>
+      <c r="I96">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>50.061767578125</v>
+      </c>
+      <c r="C97">
+        <v>27.96723491358424</v>
+      </c>
+      <c r="D97">
+        <v>782.1662287116051</v>
+      </c>
+      <c r="E97">
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>34</v>
+      </c>
+      <c r="G97">
+        <v>39</v>
+      </c>
+      <c r="H97">
+        <v>60</v>
+      </c>
+      <c r="I97">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>60.7762451171875</v>
+      </c>
+      <c r="C98">
+        <v>37.69138800377156</v>
+      </c>
+      <c r="D98">
+        <v>1420.640729650855</v>
+      </c>
+      <c r="E98">
+        <v>24</v>
+      </c>
+      <c r="F98">
+        <v>33</v>
+      </c>
+      <c r="G98">
+        <v>41</v>
+      </c>
+      <c r="H98">
+        <v>82</v>
+      </c>
+      <c r="I98">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>58.8084716796875</v>
+      </c>
+      <c r="C99">
+        <v>33.19585488801679</v>
+      </c>
+      <c r="D99">
+        <v>1101.964781746268</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+      <c r="F99">
+        <v>31</v>
+      </c>
+      <c r="G99">
+        <v>47</v>
+      </c>
+      <c r="H99">
+        <v>75</v>
+      </c>
+      <c r="I99">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>75.207275390625</v>
+      </c>
+      <c r="C100">
+        <v>50.1116064536507</v>
+      </c>
+      <c r="D100">
+        <v>2511.173101365566</v>
+      </c>
+      <c r="E100">
+        <v>16</v>
+      </c>
+      <c r="F100">
+        <v>26</v>
+      </c>
+      <c r="G100">
+        <v>71.5</v>
+      </c>
+      <c r="H100">
+        <v>118</v>
+      </c>
+      <c r="I100">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>76.08624267578125</v>
+      </c>
+      <c r="C101">
+        <v>51.76154593793029</v>
+      </c>
+      <c r="D101">
+        <v>2679.257637884468</v>
+      </c>
+      <c r="E101">
+        <v>16</v>
+      </c>
+      <c r="F101">
+        <v>25</v>
+      </c>
+      <c r="G101">
+        <v>68</v>
+      </c>
+      <c r="H101">
+        <v>122</v>
+      </c>
+      <c r="I101">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>75.93646240234375</v>
+      </c>
+      <c r="C102">
+        <v>50.62800727550442</v>
+      </c>
+      <c r="D102">
+        <v>2563.195120688528</v>
+      </c>
+      <c r="E102">
+        <v>16</v>
+      </c>
+      <c r="F102">
+        <v>25</v>
+      </c>
+      <c r="G102">
+        <v>69</v>
+      </c>
+      <c r="H102">
+        <v>122</v>
+      </c>
+      <c r="I102">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>78.15203857421875</v>
+      </c>
+      <c r="C103">
+        <v>50.04259310821738</v>
+      </c>
+      <c r="D103">
+        <v>2504.261124994606</v>
+      </c>
+      <c r="E103">
+        <v>17</v>
+      </c>
+      <c r="F103">
+        <v>26</v>
+      </c>
+      <c r="G103">
+        <v>76</v>
+      </c>
+      <c r="H103">
+        <v>125</v>
+      </c>
+      <c r="I103">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>81.2303466796875</v>
+      </c>
+      <c r="C104">
+        <v>51.15224615876457</v>
+      </c>
+      <c r="D104">
+        <v>2616.552287086844</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>27</v>
+      </c>
+      <c r="G104">
+        <v>79</v>
+      </c>
+      <c r="H104">
+        <v>128</v>
+      </c>
+      <c r="I104">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>80.36614990234375</v>
+      </c>
+      <c r="C105">
+        <v>50.236122434333</v>
+      </c>
+      <c r="D105">
+        <v>2523.667997237295</v>
+      </c>
+      <c r="E105">
+        <v>16</v>
+      </c>
+      <c r="F105">
+        <v>27</v>
+      </c>
+      <c r="G105">
+        <v>80</v>
+      </c>
+      <c r="H105">
+        <v>127</v>
+      </c>
+      <c r="I105">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>81.4176025390625</v>
+      </c>
+      <c r="C106">
+        <v>51.41905993238603</v>
+      </c>
+      <c r="D106">
+        <v>2643.919724330306</v>
+      </c>
+      <c r="E106">
+        <v>17</v>
+      </c>
+      <c r="F106">
+        <v>27</v>
+      </c>
+      <c r="G106">
+        <v>81</v>
+      </c>
+      <c r="H106">
+        <v>129</v>
+      </c>
+      <c r="I106">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>62.62371826171875</v>
+      </c>
+      <c r="C107">
+        <v>54.46535194007085</v>
+      </c>
+      <c r="D107">
+        <v>2966.47456195578</v>
+      </c>
+      <c r="E107">
+        <v>15</v>
+      </c>
+      <c r="F107">
+        <v>25</v>
+      </c>
+      <c r="G107">
+        <v>26</v>
+      </c>
+      <c r="H107">
+        <v>101</v>
+      </c>
+      <c r="I107">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>46.8101806640625</v>
+      </c>
+      <c r="C108">
+        <v>44.96171715621334</v>
+      </c>
+      <c r="D108">
+        <v>2021.556009635329</v>
+      </c>
+      <c r="E108">
+        <v>16</v>
+      </c>
+      <c r="F108">
+        <v>25</v>
+      </c>
+      <c r="G108">
+        <v>25</v>
+      </c>
+      <c r="H108">
+        <v>27</v>
+      </c>
+      <c r="I108">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>45.62921142578125</v>
+      </c>
+      <c r="C109">
+        <v>42.43185631555624</v>
+      </c>
+      <c r="D109">
+        <v>1800.46243038401</v>
+      </c>
+      <c r="E109">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>25</v>
+      </c>
+      <c r="G109">
+        <v>25</v>
+      </c>
+      <c r="H109">
+        <v>27</v>
+      </c>
+      <c r="I109">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>47.2110595703125</v>
+      </c>
+      <c r="C110">
+        <v>44.11158900915345</v>
+      </c>
+      <c r="D110">
+        <v>1945.832284912467</v>
+      </c>
+      <c r="E110">
+        <v>16</v>
+      </c>
+      <c r="F110">
+        <v>25</v>
+      </c>
+      <c r="G110">
+        <v>25</v>
+      </c>
+      <c r="H110">
+        <v>36</v>
+      </c>
+      <c r="I110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>84.94775390625</v>
+      </c>
+      <c r="C111">
+        <v>60.94617590349497</v>
+      </c>
+      <c r="D111">
+        <v>3714.43635725975</v>
+      </c>
+      <c r="E111">
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>25</v>
+      </c>
+      <c r="G111">
+        <v>74</v>
+      </c>
+      <c r="H111">
+        <v>141</v>
+      </c>
+      <c r="I111">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>53.08782958984375</v>
+      </c>
+      <c r="C112">
+        <v>50.92942241672714</v>
+      </c>
+      <c r="D112">
+        <v>2593.806067701429</v>
+      </c>
+      <c r="E112">
+        <v>16</v>
+      </c>
+      <c r="F112">
+        <v>25</v>
+      </c>
+      <c r="G112">
+        <v>25</v>
+      </c>
+      <c r="H112">
+        <v>64</v>
+      </c>
+      <c r="I112">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>64.3599853515625</v>
+      </c>
+      <c r="C113">
+        <v>54.56108760521411</v>
+      </c>
+      <c r="D113">
+        <v>2976.912280663848</v>
+      </c>
+      <c r="E113">
+        <v>15</v>
+      </c>
+      <c r="F113">
+        <v>25</v>
+      </c>
+      <c r="G113">
+        <v>28</v>
+      </c>
+      <c r="H113">
+        <v>110</v>
+      </c>
+      <c r="I113">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>83.43072509765625</v>
+      </c>
+      <c r="C114">
+        <v>71.51175678316446</v>
+      </c>
+      <c r="D114">
+        <v>5113.931358214468</v>
+      </c>
+      <c r="E114">
+        <v>15</v>
+      </c>
+      <c r="F114">
+        <v>26</v>
+      </c>
+      <c r="G114">
+        <v>28</v>
+      </c>
+      <c r="H114">
+        <v>146</v>
+      </c>
+      <c r="I114">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
         <v>112</v>
       </c>
-      <c r="H4">
+      <c r="B115">
+        <v>94.44866943359375</v>
+      </c>
+      <c r="C115">
+        <v>80.81793353456862</v>
+      </c>
+      <c r="D115">
+        <v>6531.538380797952</v>
+      </c>
+      <c r="E115">
+        <v>15</v>
+      </c>
+      <c r="F115">
+        <v>26</v>
+      </c>
+      <c r="G115">
+        <v>30</v>
+      </c>
+      <c r="H115">
+        <v>179</v>
+      </c>
+      <c r="I115">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>86.77508544921875</v>
+      </c>
+      <c r="C116">
+        <v>79.40865358711899</v>
+      </c>
+      <c r="D116">
+        <v>6305.734264519066</v>
+      </c>
+      <c r="E116">
+        <v>15</v>
+      </c>
+      <c r="F116">
+        <v>26</v>
+      </c>
+      <c r="G116">
+        <v>27</v>
+      </c>
+      <c r="H116">
+        <v>169</v>
+      </c>
+      <c r="I116">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>86.2152099609375</v>
+      </c>
+      <c r="C117">
+        <v>78.13511542704543</v>
+      </c>
+      <c r="D117">
+        <v>6105.096262797713</v>
+      </c>
+      <c r="E117">
+        <v>14</v>
+      </c>
+      <c r="F117">
+        <v>26</v>
+      </c>
+      <c r="G117">
+        <v>28</v>
+      </c>
+      <c r="H117">
+        <v>160</v>
+      </c>
+      <c r="I117">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <v>113.1156616210938</v>
+      </c>
+      <c r="C118">
+        <v>80.71759377696607</v>
+      </c>
+      <c r="D118">
+        <v>6515.329945143312</v>
+      </c>
+      <c r="E118">
+        <v>16</v>
+      </c>
+      <c r="F118">
+        <v>26</v>
+      </c>
+      <c r="G118">
+        <v>119</v>
+      </c>
+      <c r="H118">
+        <v>207</v>
+      </c>
+      <c r="I118">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>88.9696044921875</v>
+      </c>
+      <c r="C119">
+        <v>78.3513622457296</v>
+      </c>
+      <c r="D119">
+        <v>6138.935965761542</v>
+      </c>
+      <c r="E119">
+        <v>12</v>
+      </c>
+      <c r="F119">
+        <v>25</v>
+      </c>
+      <c r="G119">
+        <v>27</v>
+      </c>
+      <c r="H119">
+        <v>169</v>
+      </c>
+      <c r="I119">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>82.3514404296875</v>
+      </c>
+      <c r="C120">
+        <v>72.63904803337316</v>
+      </c>
+      <c r="D120">
+        <v>5276.431299194694</v>
+      </c>
+      <c r="E120">
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>25</v>
+      </c>
+      <c r="G120">
+        <v>28</v>
+      </c>
+      <c r="H120">
+        <v>158</v>
+      </c>
+      <c r="I120">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>70.77960205078125</v>
+      </c>
+      <c r="C121">
+        <v>51.70309498183848</v>
+      </c>
+      <c r="D121">
+        <v>2673.210030701011</v>
+      </c>
+      <c r="E121">
+        <v>16</v>
+      </c>
+      <c r="F121">
+        <v>25</v>
+      </c>
+      <c r="G121">
+        <v>55</v>
+      </c>
+      <c r="H121">
+        <v>112</v>
+      </c>
+      <c r="I121">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>70.738525390625</v>
+      </c>
+      <c r="C122">
+        <v>51.14972435827088</v>
+      </c>
+      <c r="D122">
+        <v>2616.29430192709</v>
+      </c>
+      <c r="E122">
+        <v>17</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122">
+        <v>55</v>
+      </c>
+      <c r="H122">
+        <v>111</v>
+      </c>
+      <c r="I122">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>70.23248291015625</v>
+      </c>
+      <c r="C123">
+        <v>51.37640392163645</v>
+      </c>
+      <c r="D123">
+        <v>2639.534879919142</v>
+      </c>
+      <c r="E123">
+        <v>17</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123">
+        <v>56</v>
+      </c>
+      <c r="H123">
+        <v>110</v>
+      </c>
+      <c r="I123">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>69.286865234375</v>
+      </c>
+      <c r="C124">
+        <v>49.62919986102052</v>
+      </c>
+      <c r="D124">
+        <v>2463.057478845119</v>
+      </c>
+      <c r="E124">
+        <v>16</v>
+      </c>
+      <c r="F124">
+        <v>25</v>
+      </c>
+      <c r="G124">
+        <v>57</v>
+      </c>
+      <c r="H124">
+        <v>107</v>
+      </c>
+      <c r="I124">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
         <v>122</v>
       </c>
-      <c r="I4">
-        <v>255</v>
+      <c r="B125">
+        <v>69.62664794921875</v>
+      </c>
+      <c r="C125">
+        <v>50.22673761289358</v>
+      </c>
+      <c r="D125">
+        <v>2522.725171234459</v>
+      </c>
+      <c r="E125">
+        <v>17</v>
+      </c>
+      <c r="F125">
+        <v>25</v>
+      </c>
+      <c r="G125">
+        <v>54</v>
+      </c>
+      <c r="H125">
+        <v>108</v>
+      </c>
+      <c r="I125">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>71.0916748046875</v>
+      </c>
+      <c r="C126">
+        <v>52.59970785687524</v>
+      </c>
+      <c r="D126">
+        <v>2766.729266628623</v>
+      </c>
+      <c r="E126">
+        <v>16</v>
+      </c>
+      <c r="F126">
+        <v>25</v>
+      </c>
+      <c r="G126">
+        <v>55</v>
+      </c>
+      <c r="H126">
+        <v>109</v>
+      </c>
+      <c r="I126">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>70.3114013671875</v>
+      </c>
+      <c r="C127">
+        <v>51.81020710669389</v>
+      </c>
+      <c r="D127">
+        <v>2684.297560438514</v>
+      </c>
+      <c r="E127">
+        <v>16</v>
+      </c>
+      <c r="F127">
+        <v>25</v>
+      </c>
+      <c r="G127">
+        <v>53</v>
+      </c>
+      <c r="H127">
+        <v>111</v>
+      </c>
+      <c r="I127">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>69.7232666015625</v>
+      </c>
+      <c r="C128">
+        <v>50.23692116091264</v>
+      </c>
+      <c r="D128">
+        <v>2523.748247727752</v>
+      </c>
+      <c r="E128">
+        <v>17</v>
+      </c>
+      <c r="F128">
+        <v>25</v>
+      </c>
+      <c r="G128">
+        <v>54</v>
+      </c>
+      <c r="H128">
+        <v>109</v>
+      </c>
+      <c r="I128">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>89.9139404296875</v>
+      </c>
+      <c r="C129">
+        <v>66.44146890338457</v>
+      </c>
+      <c r="D129">
+        <v>4414.46879003942</v>
+      </c>
+      <c r="E129">
+        <v>15</v>
+      </c>
+      <c r="F129">
+        <v>25</v>
+      </c>
+      <c r="G129">
+        <v>81</v>
+      </c>
+      <c r="H129">
+        <v>147</v>
+      </c>
+      <c r="I129">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>89.60748291015625</v>
+      </c>
+      <c r="C130">
+        <v>66.15683802113939</v>
+      </c>
+      <c r="D130">
+        <v>4376.727216955274</v>
+      </c>
+      <c r="E130">
+        <v>15</v>
+      </c>
+      <c r="F130">
+        <v>25</v>
+      </c>
+      <c r="G130">
+        <v>78</v>
+      </c>
+      <c r="H130">
+        <v>143</v>
+      </c>
+      <c r="I130">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <v>87.04205322265625</v>
+      </c>
+      <c r="C131">
+        <v>65.81487784746885</v>
+      </c>
+      <c r="D131">
+        <v>4331.598146077245</v>
+      </c>
+      <c r="E131">
+        <v>14</v>
+      </c>
+      <c r="F131">
+        <v>25</v>
+      </c>
+      <c r="G131">
+        <v>71</v>
+      </c>
+      <c r="H131">
+        <v>140</v>
+      </c>
+      <c r="I131">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>86.6192626953125</v>
+      </c>
+      <c r="C132">
+        <v>67.35377452248042</v>
+      </c>
+      <c r="D132">
+        <v>4536.530942425132</v>
+      </c>
+      <c r="E132">
+        <v>15</v>
+      </c>
+      <c r="F132">
+        <v>25</v>
+      </c>
+      <c r="G132">
+        <v>58</v>
+      </c>
+      <c r="H132">
+        <v>146</v>
+      </c>
+      <c r="I132">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>86.25128173828125</v>
+      </c>
+      <c r="C133">
+        <v>67.17495271333496</v>
+      </c>
+      <c r="D133">
+        <v>4512.474272038788</v>
+      </c>
+      <c r="E133">
+        <v>15</v>
+      </c>
+      <c r="F133">
+        <v>25</v>
+      </c>
+      <c r="G133">
+        <v>57</v>
+      </c>
+      <c r="H133">
+        <v>145</v>
+      </c>
+      <c r="I133">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>84.82489013671875</v>
+      </c>
+      <c r="C134">
+        <v>65.95635866356538</v>
+      </c>
+      <c r="D134">
+        <v>4350.241248156875</v>
+      </c>
+      <c r="E134">
+        <v>15</v>
+      </c>
+      <c r="F134">
+        <v>25</v>
+      </c>
+      <c r="G134">
+        <v>56.5</v>
+      </c>
+      <c r="H134">
+        <v>138</v>
+      </c>
+      <c r="I134">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>85.6644287109375</v>
+      </c>
+      <c r="C135">
+        <v>65.97039270896894</v>
+      </c>
+      <c r="D135">
+        <v>4352.092714175582</v>
+      </c>
+      <c r="E135">
+        <v>14</v>
+      </c>
+      <c r="F135">
+        <v>25</v>
+      </c>
+      <c r="G135">
+        <v>59</v>
+      </c>
+      <c r="H135">
+        <v>143</v>
+      </c>
+      <c r="I135">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>50.137451171875</v>
+      </c>
+      <c r="C136">
+        <v>40.93656849784158</v>
+      </c>
+      <c r="D136">
+        <v>1675.802640378475</v>
+      </c>
+      <c r="E136">
+        <v>16</v>
+      </c>
+      <c r="F136">
+        <v>25</v>
+      </c>
+      <c r="G136">
+        <v>25</v>
+      </c>
+      <c r="H136">
+        <v>76</v>
+      </c>
+      <c r="I136">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>51.64794921875</v>
+      </c>
+      <c r="C137">
+        <v>39.20522314898212</v>
+      </c>
+      <c r="D137">
+        <v>1537.049522161484</v>
+      </c>
+      <c r="E137">
+        <v>16</v>
+      </c>
+      <c r="F137">
+        <v>25</v>
+      </c>
+      <c r="G137">
+        <v>25</v>
+      </c>
+      <c r="H137">
+        <v>83</v>
+      </c>
+      <c r="I137">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <v>47.14520263671875</v>
+      </c>
+      <c r="C138">
+        <v>33.66777958973362</v>
+      </c>
+      <c r="D138">
+        <v>1133.519382502884</v>
+      </c>
+      <c r="E138">
+        <v>14</v>
+      </c>
+      <c r="F138">
+        <v>26</v>
+      </c>
+      <c r="G138">
+        <v>26</v>
+      </c>
+      <c r="H138">
+        <v>71</v>
+      </c>
+      <c r="I138">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>44.821044921875</v>
+      </c>
+      <c r="C139">
+        <v>34.2142114068027</v>
+      </c>
+      <c r="D139">
+        <v>1170.612262189388</v>
+      </c>
+      <c r="E139">
+        <v>16</v>
+      </c>
+      <c r="F139">
+        <v>25</v>
+      </c>
+      <c r="G139">
+        <v>25</v>
+      </c>
+      <c r="H139">
+        <v>64</v>
+      </c>
+      <c r="I139">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>50.2410888671875</v>
+      </c>
+      <c r="C140">
+        <v>36.18690604523781</v>
+      </c>
+      <c r="D140">
+        <v>1309.492169126868</v>
+      </c>
+      <c r="E140">
+        <v>14</v>
+      </c>
+      <c r="F140">
+        <v>26</v>
+      </c>
+      <c r="G140">
+        <v>26</v>
+      </c>
+      <c r="H140">
+        <v>80</v>
+      </c>
+      <c r="I140">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>50.716064453125</v>
+      </c>
+      <c r="C141">
+        <v>39.24724681501042</v>
+      </c>
+      <c r="D141">
+        <v>1540.346382558346</v>
+      </c>
+      <c r="E141">
+        <v>16</v>
+      </c>
+      <c r="F141">
+        <v>25</v>
+      </c>
+      <c r="G141">
+        <v>25</v>
+      </c>
+      <c r="H141">
+        <v>80</v>
+      </c>
+      <c r="I141">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>46.11688232421875</v>
+      </c>
+      <c r="C142">
+        <v>34.59476374907504</v>
+      </c>
+      <c r="D142">
+        <v>1196.797678854316</v>
+      </c>
+      <c r="E142">
+        <v>15</v>
+      </c>
+      <c r="F142">
+        <v>26</v>
+      </c>
+      <c r="G142">
+        <v>26</v>
+      </c>
+      <c r="H142">
+        <v>63</v>
+      </c>
+      <c r="I142">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <v>72.0162353515625</v>
+      </c>
+      <c r="C143">
+        <v>55.92992795369531</v>
+      </c>
+      <c r="D143">
+        <v>3128.156840905547</v>
+      </c>
+      <c r="E143">
+        <v>17</v>
+      </c>
+      <c r="F143">
+        <v>25</v>
+      </c>
+      <c r="G143">
+        <v>29</v>
+      </c>
+      <c r="H143">
+        <v>118</v>
+      </c>
+      <c r="I143">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>72.55914306640625</v>
+      </c>
+      <c r="C144">
+        <v>55.34716907094715</v>
+      </c>
+      <c r="D144">
+        <v>3063.309124168009</v>
+      </c>
+      <c r="E144">
+        <v>17</v>
+      </c>
+      <c r="F144">
+        <v>25</v>
+      </c>
+      <c r="G144">
+        <v>46</v>
+      </c>
+      <c r="H144">
+        <v>115</v>
+      </c>
+      <c r="I144">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <v>74.23760986328125</v>
+      </c>
+      <c r="C145">
+        <v>54.6252379861998</v>
+      </c>
+      <c r="D145">
+        <v>2983.916625048965</v>
+      </c>
+      <c r="E145">
+        <v>17</v>
+      </c>
+      <c r="F145">
+        <v>26</v>
+      </c>
+      <c r="G145">
+        <v>47</v>
+      </c>
+      <c r="H145">
+        <v>117</v>
+      </c>
+      <c r="I145">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <v>70.66326904296875</v>
+      </c>
+      <c r="C146">
+        <v>54.05174164502225</v>
+      </c>
+      <c r="D146">
+        <v>2921.590774860233</v>
+      </c>
+      <c r="E146">
+        <v>16</v>
+      </c>
+      <c r="F146">
+        <v>25</v>
+      </c>
+      <c r="G146">
+        <v>35</v>
+      </c>
+      <c r="H146">
+        <v>113</v>
+      </c>
+      <c r="I146">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>68.9390869140625</v>
+      </c>
+      <c r="C147">
+        <v>54.22369349353045</v>
+      </c>
+      <c r="D147">
+        <v>2940.208936080337</v>
+      </c>
+      <c r="E147">
+        <v>17</v>
+      </c>
+      <c r="F147">
+        <v>25</v>
+      </c>
+      <c r="G147">
+        <v>28</v>
+      </c>
+      <c r="H147">
+        <v>112</v>
+      </c>
+      <c r="I147">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>71.5587158203125</v>
+      </c>
+      <c r="C148">
+        <v>55.67371545434621</v>
+      </c>
+      <c r="D148">
+        <v>3099.562592491508</v>
+      </c>
+      <c r="E148">
+        <v>17</v>
+      </c>
+      <c r="F148">
+        <v>25</v>
+      </c>
+      <c r="G148">
+        <v>32</v>
+      </c>
+      <c r="H148">
+        <v>116</v>
+      </c>
+      <c r="I148">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>68.88714599609375</v>
+      </c>
+      <c r="C149">
+        <v>54.71986114670987</v>
+      </c>
+      <c r="D149">
+        <v>2994.263203915209</v>
+      </c>
+      <c r="E149">
+        <v>15</v>
+      </c>
+      <c r="F149">
+        <v>25</v>
+      </c>
+      <c r="G149">
+        <v>29</v>
+      </c>
+      <c r="H149">
+        <v>105</v>
+      </c>
+      <c r="I149">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>50.66949462890625</v>
+      </c>
+      <c r="C150">
+        <v>34.06569053418369</v>
+      </c>
+      <c r="D150">
+        <v>1160.471271570772</v>
+      </c>
+      <c r="E150">
+        <v>15</v>
+      </c>
+      <c r="F150">
+        <v>25</v>
+      </c>
+      <c r="G150">
+        <v>30</v>
+      </c>
+      <c r="H150">
+        <v>65</v>
+      </c>
+      <c r="I150">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>37.75933837890625</v>
+      </c>
+      <c r="C151">
+        <v>26.64548625829831</v>
+      </c>
+      <c r="D151">
+        <v>709.9819379411638</v>
+      </c>
+      <c r="E151">
+        <v>16</v>
+      </c>
+      <c r="F151">
+        <v>25</v>
+      </c>
+      <c r="G151">
+        <v>25</v>
+      </c>
+      <c r="H151">
+        <v>39</v>
+      </c>
+      <c r="I151">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <v>53.9364013671875</v>
+      </c>
+      <c r="C152">
+        <v>36.88354122663698</v>
+      </c>
+      <c r="D152">
+        <v>1360.395613417029</v>
+      </c>
+      <c r="E152">
+        <v>16</v>
+      </c>
+      <c r="F152">
+        <v>25</v>
+      </c>
+      <c r="G152">
+        <v>35</v>
+      </c>
+      <c r="H152">
+        <v>71</v>
+      </c>
+      <c r="I152">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <v>45.50018310546875</v>
+      </c>
+      <c r="C153">
+        <v>27.93461385689195</v>
+      </c>
+      <c r="D153">
+        <v>780.3426513336599</v>
+      </c>
+      <c r="E153">
+        <v>16</v>
+      </c>
+      <c r="F153">
+        <v>25</v>
+      </c>
+      <c r="G153">
+        <v>26</v>
+      </c>
+      <c r="H153">
+        <v>58</v>
+      </c>
+      <c r="I153">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>33.334228515625</v>
+      </c>
+      <c r="C154">
+        <v>20.62812441511057</v>
+      </c>
+      <c r="D154">
+        <v>425.5195168852806</v>
+      </c>
+      <c r="E154">
+        <v>16</v>
+      </c>
+      <c r="F154">
+        <v>25</v>
+      </c>
+      <c r="G154">
+        <v>25</v>
+      </c>
+      <c r="H154">
+        <v>25</v>
+      </c>
+      <c r="I154">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>45.46014404296875</v>
+      </c>
+      <c r="C155">
+        <v>35.85920647262623</v>
+      </c>
+      <c r="D155">
+        <v>1285.882688846439</v>
+      </c>
+      <c r="E155">
+        <v>16</v>
+      </c>
+      <c r="F155">
+        <v>25</v>
+      </c>
+      <c r="G155">
+        <v>25</v>
+      </c>
+      <c r="H155">
+        <v>60</v>
+      </c>
+      <c r="I155">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <v>37.57415771484375</v>
+      </c>
+      <c r="C156">
+        <v>24.13881705706763</v>
+      </c>
+      <c r="D156">
+        <v>582.6824889145792</v>
+      </c>
+      <c r="E156">
+        <v>16</v>
+      </c>
+      <c r="F156">
+        <v>25</v>
+      </c>
+      <c r="G156">
+        <v>25</v>
+      </c>
+      <c r="H156">
+        <v>44</v>
+      </c>
+      <c r="I156">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>47.38824462890625</v>
+      </c>
+      <c r="C157">
+        <v>44.88472742319173</v>
+      </c>
+      <c r="D157">
+        <v>2014.638755854219</v>
+      </c>
+      <c r="E157">
+        <v>15</v>
+      </c>
+      <c r="F157">
+        <v>25</v>
+      </c>
+      <c r="G157">
+        <v>25</v>
+      </c>
+      <c r="H157">
+        <v>31.25</v>
+      </c>
+      <c r="I157">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <v>82.4710693359375</v>
+      </c>
+      <c r="C158">
+        <v>55.7590676563669</v>
+      </c>
+      <c r="D158">
+        <v>3109.073625907302</v>
+      </c>
+      <c r="E158">
+        <v>15</v>
+      </c>
+      <c r="F158">
+        <v>25</v>
+      </c>
+      <c r="G158">
+        <v>84.5</v>
+      </c>
+      <c r="H158">
+        <v>124</v>
+      </c>
+      <c r="I158">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>156</v>
+      </c>
+      <c r="B159">
+        <v>48.40380859375</v>
+      </c>
+      <c r="C159">
+        <v>46.04762416834664</v>
+      </c>
+      <c r="D159">
+        <v>2120.383691549301</v>
+      </c>
+      <c r="E159">
+        <v>16</v>
+      </c>
+      <c r="F159">
+        <v>25</v>
+      </c>
+      <c r="G159">
+        <v>25</v>
+      </c>
+      <c r="H159">
+        <v>36</v>
+      </c>
+      <c r="I159">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>47.900146484375</v>
+      </c>
+      <c r="C160">
+        <v>46.63891632106756</v>
+      </c>
+      <c r="D160">
+        <v>2175.188515603542</v>
+      </c>
+      <c r="E160">
+        <v>15</v>
+      </c>
+      <c r="F160">
+        <v>25</v>
+      </c>
+      <c r="G160">
+        <v>25</v>
+      </c>
+      <c r="H160">
+        <v>32</v>
+      </c>
+      <c r="I160">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <v>75.00830078125</v>
+      </c>
+      <c r="C161">
+        <v>63.71763351494991</v>
+      </c>
+      <c r="D161">
+        <v>4059.936820745468</v>
+      </c>
+      <c r="E161">
+        <v>16</v>
+      </c>
+      <c r="F161">
+        <v>25</v>
+      </c>
+      <c r="G161">
+        <v>29</v>
+      </c>
+      <c r="H161">
+        <v>128</v>
+      </c>
+      <c r="I161">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <v>66.74713134765625</v>
+      </c>
+      <c r="C162">
+        <v>58.86532966397596</v>
+      </c>
+      <c r="D162">
+        <v>3465.127036448568</v>
+      </c>
+      <c r="E162">
+        <v>16</v>
+      </c>
+      <c r="F162">
+        <v>25</v>
+      </c>
+      <c r="G162">
+        <v>25</v>
+      </c>
+      <c r="H162">
+        <v>117</v>
+      </c>
+      <c r="I162">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <v>48.3011474609375</v>
+      </c>
+      <c r="C163">
+        <v>46.11684414737223</v>
+      </c>
+      <c r="D163">
+        <v>2126.763314113021</v>
+      </c>
+      <c r="E163">
+        <v>15</v>
+      </c>
+      <c r="F163">
+        <v>25</v>
+      </c>
+      <c r="G163">
+        <v>25</v>
+      </c>
+      <c r="H163">
+        <v>33</v>
+      </c>
+      <c r="I163">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>50.5458984375</v>
+      </c>
+      <c r="C164">
+        <v>46.58395287858656</v>
+      </c>
+      <c r="D164">
+        <v>2170.064665794373</v>
+      </c>
+      <c r="E164">
+        <v>15</v>
+      </c>
+      <c r="F164">
+        <v>25</v>
+      </c>
+      <c r="G164">
+        <v>25</v>
+      </c>
+      <c r="H164">
+        <v>56</v>
+      </c>
+      <c r="I164">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>63.09130859375</v>
+      </c>
+      <c r="C165">
+        <v>57.06733308569925</v>
+      </c>
+      <c r="D165">
+        <v>3256.680505514145</v>
+      </c>
+      <c r="E165">
+        <v>14</v>
+      </c>
+      <c r="F165">
+        <v>25</v>
+      </c>
+      <c r="G165">
+        <v>25</v>
+      </c>
+      <c r="H165">
+        <v>108</v>
+      </c>
+      <c r="I165">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166">
+        <v>62.6297607421875</v>
+      </c>
+      <c r="C166">
+        <v>54.55104859105975</v>
+      </c>
+      <c r="D166">
+        <v>2975.816902384162</v>
+      </c>
+      <c r="E166">
+        <v>15</v>
+      </c>
+      <c r="F166">
+        <v>25</v>
+      </c>
+      <c r="G166">
+        <v>25</v>
+      </c>
+      <c r="H166">
+        <v>103</v>
+      </c>
+      <c r="I166">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>164</v>
+      </c>
+      <c r="B167">
+        <v>58.3487548828125</v>
+      </c>
+      <c r="C167">
+        <v>52.14224577860453</v>
+      </c>
+      <c r="D167">
+        <v>2718.813794836402</v>
+      </c>
+      <c r="E167">
+        <v>15</v>
+      </c>
+      <c r="F167">
+        <v>25</v>
+      </c>
+      <c r="G167">
+        <v>25</v>
+      </c>
+      <c r="H167">
+        <v>83</v>
+      </c>
+      <c r="I167">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168">
+        <v>56.0855712890625</v>
+      </c>
+      <c r="C168">
+        <v>51.74049653091306</v>
+      </c>
+      <c r="D168">
+        <v>2677.078981265426</v>
+      </c>
+      <c r="E168">
+        <v>15</v>
+      </c>
+      <c r="F168">
+        <v>25</v>
+      </c>
+      <c r="G168">
+        <v>25</v>
+      </c>
+      <c r="H168">
+        <v>70</v>
+      </c>
+      <c r="I168">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169">
+        <v>54.7003173828125</v>
+      </c>
+      <c r="C169">
+        <v>51.79125308759814</v>
+      </c>
+      <c r="D169">
+        <v>2682.333896383643</v>
+      </c>
+      <c r="E169">
+        <v>16</v>
+      </c>
+      <c r="F169">
+        <v>25</v>
+      </c>
+      <c r="G169">
+        <v>25</v>
+      </c>
+      <c r="H169">
+        <v>62</v>
+      </c>
+      <c r="I169">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>54.01397705078125</v>
+      </c>
+      <c r="C170">
+        <v>50.10119629869151</v>
+      </c>
+      <c r="D170">
+        <v>2510.12987056002</v>
+      </c>
+      <c r="E170">
+        <v>15</v>
+      </c>
+      <c r="F170">
+        <v>25</v>
+      </c>
+      <c r="G170">
+        <v>25</v>
+      </c>
+      <c r="H170">
+        <v>55</v>
+      </c>
+      <c r="I170">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>58.40716552734375</v>
+      </c>
+      <c r="C171">
+        <v>55.3558351158219</v>
+      </c>
+      <c r="D171">
+        <v>3064.268481370062</v>
+      </c>
+      <c r="E171">
+        <v>14</v>
+      </c>
+      <c r="F171">
+        <v>25</v>
+      </c>
+      <c r="G171">
+        <v>25</v>
+      </c>
+      <c r="H171">
+        <v>79</v>
+      </c>
+      <c r="I171">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172">
+        <v>51.67767333984375</v>
+      </c>
+      <c r="C172">
+        <v>34.39993129360321</v>
+      </c>
+      <c r="D172">
+        <v>1183.355273004621</v>
+      </c>
+      <c r="E172">
+        <v>16</v>
+      </c>
+      <c r="F172">
+        <v>25</v>
+      </c>
+      <c r="G172">
+        <v>28</v>
+      </c>
+      <c r="H172">
+        <v>70</v>
+      </c>
+      <c r="I172">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173">
+        <v>51.29669189453125</v>
+      </c>
+      <c r="C173">
+        <v>32.9024314289879</v>
+      </c>
+      <c r="D173">
+        <v>1082.569993939251</v>
+      </c>
+      <c r="E173">
+        <v>17</v>
+      </c>
+      <c r="F173">
+        <v>25</v>
+      </c>
+      <c r="G173">
+        <v>28</v>
+      </c>
+      <c r="H173">
+        <v>72</v>
+      </c>
+      <c r="I173">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>49.68359375</v>
+      </c>
+      <c r="C174">
+        <v>30.69656990099258</v>
+      </c>
+      <c r="D174">
+        <v>942.2794036865234</v>
+      </c>
+      <c r="E174">
+        <v>17</v>
+      </c>
+      <c r="F174">
+        <v>25</v>
+      </c>
+      <c r="G174">
+        <v>28</v>
+      </c>
+      <c r="H174">
+        <v>73</v>
+      </c>
+      <c r="I174">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175">
+        <v>49.61175537109375</v>
+      </c>
+      <c r="C175">
+        <v>30.71815926432758</v>
+      </c>
+      <c r="D175">
+        <v>943.6053085885942</v>
+      </c>
+      <c r="E175">
+        <v>16</v>
+      </c>
+      <c r="F175">
+        <v>25</v>
+      </c>
+      <c r="G175">
+        <v>28</v>
+      </c>
+      <c r="H175">
+        <v>69</v>
+      </c>
+      <c r="I175">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176">
+        <v>49.82366943359375</v>
+      </c>
+      <c r="C176">
+        <v>30.59893220621035</v>
+      </c>
+      <c r="D176">
+        <v>936.2946521602571</v>
+      </c>
+      <c r="E176">
+        <v>16</v>
+      </c>
+      <c r="F176">
+        <v>25</v>
+      </c>
+      <c r="G176">
+        <v>30</v>
+      </c>
+      <c r="H176">
+        <v>71</v>
+      </c>
+      <c r="I176">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177">
+        <v>51.1348876953125</v>
+      </c>
+      <c r="C177">
+        <v>34.1894886824056</v>
+      </c>
+      <c r="D177">
+        <v>1168.921136364341</v>
+      </c>
+      <c r="E177">
+        <v>16</v>
+      </c>
+      <c r="F177">
+        <v>25</v>
+      </c>
+      <c r="G177">
+        <v>28</v>
+      </c>
+      <c r="H177">
+        <v>70</v>
+      </c>
+      <c r="I177">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178">
+        <v>50.161376953125</v>
+      </c>
+      <c r="C178">
+        <v>32.55342412593105</v>
+      </c>
+      <c r="D178">
+        <v>1059.72542232275</v>
+      </c>
+      <c r="E178">
+        <v>16</v>
+      </c>
+      <c r="F178">
+        <v>25</v>
+      </c>
+      <c r="G178">
+        <v>29</v>
+      </c>
+      <c r="H178">
+        <v>70</v>
+      </c>
+      <c r="I178">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179">
+        <v>38.91094970703125</v>
+      </c>
+      <c r="C179">
+        <v>22.60526466236302</v>
+      </c>
+      <c r="D179">
+        <v>510.9979904554784</v>
+      </c>
+      <c r="E179">
+        <v>14</v>
+      </c>
+      <c r="F179">
+        <v>25</v>
+      </c>
+      <c r="G179">
+        <v>25</v>
+      </c>
+      <c r="H179">
+        <v>55</v>
+      </c>
+      <c r="I179">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180">
+        <v>38.82281494140625</v>
+      </c>
+      <c r="C180">
+        <v>22.68758693780544</v>
+      </c>
+      <c r="D180">
+        <v>514.7266010604799</v>
+      </c>
+      <c r="E180">
+        <v>15</v>
+      </c>
+      <c r="F180">
+        <v>25</v>
+      </c>
+      <c r="G180">
+        <v>25</v>
+      </c>
+      <c r="H180">
+        <v>55</v>
+      </c>
+      <c r="I180">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181">
+        <v>38.59991455078125</v>
+      </c>
+      <c r="C181">
+        <v>22.41718760874493</v>
+      </c>
+      <c r="D181">
+        <v>502.5303002856672</v>
+      </c>
+      <c r="E181">
+        <v>14</v>
+      </c>
+      <c r="F181">
+        <v>25</v>
+      </c>
+      <c r="G181">
+        <v>25</v>
+      </c>
+      <c r="H181">
+        <v>53</v>
+      </c>
+      <c r="I181">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182">
+        <v>39.19873046875</v>
+      </c>
+      <c r="C182">
+        <v>22.58148079191172</v>
+      </c>
+      <c r="D182">
+        <v>509.9232747554779</v>
+      </c>
+      <c r="E182">
+        <v>15</v>
+      </c>
+      <c r="F182">
+        <v>25</v>
+      </c>
+      <c r="G182">
+        <v>25</v>
+      </c>
+      <c r="H182">
+        <v>55</v>
+      </c>
+      <c r="I182">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183">
+        <v>38.800048828125</v>
+      </c>
+      <c r="C183">
+        <v>22.28445881079016</v>
+      </c>
+      <c r="D183">
+        <v>496.5971044898033</v>
+      </c>
+      <c r="E183">
+        <v>15</v>
+      </c>
+      <c r="F183">
+        <v>25</v>
+      </c>
+      <c r="G183">
+        <v>25</v>
+      </c>
+      <c r="H183">
+        <v>55</v>
+      </c>
+      <c r="I183">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184">
+        <v>38.625244140625</v>
+      </c>
+      <c r="C184">
+        <v>22.42200702136579</v>
+      </c>
+      <c r="D184">
+        <v>502.7463988661766</v>
+      </c>
+      <c r="E184">
+        <v>15</v>
+      </c>
+      <c r="F184">
+        <v>25</v>
+      </c>
+      <c r="G184">
+        <v>25</v>
+      </c>
+      <c r="H184">
+        <v>54</v>
+      </c>
+      <c r="I184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185">
+        <v>38.691650390625</v>
+      </c>
+      <c r="C185">
+        <v>22.43175443521607</v>
+      </c>
+      <c r="D185">
+        <v>503.1836070418358</v>
+      </c>
+      <c r="E185">
+        <v>15</v>
+      </c>
+      <c r="F185">
+        <v>25</v>
+      </c>
+      <c r="G185">
+        <v>25</v>
+      </c>
+      <c r="H185">
+        <v>53</v>
+      </c>
+      <c r="I185">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186">
+        <v>76.78265380859375</v>
+      </c>
+      <c r="C186">
+        <v>44.77614884357505</v>
+      </c>
+      <c r="D186">
+        <v>2004.903505261987</v>
+      </c>
+      <c r="E186">
+        <v>17</v>
+      </c>
+      <c r="F186">
+        <v>32</v>
+      </c>
+      <c r="G186">
+        <v>67</v>
+      </c>
+      <c r="H186">
+        <v>126</v>
+      </c>
+      <c r="I186">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>184</v>
+      </c>
+      <c r="B187">
+        <v>74.25738525390625</v>
+      </c>
+      <c r="C187">
+        <v>43.77124735618381</v>
+      </c>
+      <c r="D187">
+        <v>1915.922095116228</v>
+      </c>
+      <c r="E187">
+        <v>17</v>
+      </c>
+      <c r="F187">
+        <v>30</v>
+      </c>
+      <c r="G187">
+        <v>64</v>
+      </c>
+      <c r="H187">
+        <v>121</v>
+      </c>
+      <c r="I187">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188">
+        <v>75.94415283203125</v>
+      </c>
+      <c r="C188">
+        <v>44.85438129358769</v>
+      </c>
+      <c r="D188">
+        <v>2011.915521230549</v>
+      </c>
+      <c r="E188">
+        <v>17</v>
+      </c>
+      <c r="F188">
+        <v>32</v>
+      </c>
+      <c r="G188">
+        <v>65</v>
+      </c>
+      <c r="H188">
+        <v>127</v>
+      </c>
+      <c r="I188">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>186</v>
+      </c>
+      <c r="B189">
+        <v>76.98284912109375</v>
+      </c>
+      <c r="C189">
+        <v>45.40385200231511</v>
+      </c>
+      <c r="D189">
+        <v>2061.509776648134</v>
+      </c>
+      <c r="E189">
+        <v>17</v>
+      </c>
+      <c r="F189">
+        <v>33</v>
+      </c>
+      <c r="G189">
+        <v>65</v>
+      </c>
+      <c r="H189">
+        <v>130</v>
+      </c>
+      <c r="I189">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190">
+        <v>76.356689453125</v>
+      </c>
+      <c r="C190">
+        <v>44.81178324018449</v>
+      </c>
+      <c r="D190">
+        <v>2008.095917165279</v>
+      </c>
+      <c r="E190">
+        <v>17</v>
+      </c>
+      <c r="F190">
+        <v>33</v>
+      </c>
+      <c r="G190">
+        <v>64</v>
+      </c>
+      <c r="H190">
+        <v>129</v>
+      </c>
+      <c r="I190">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191">
+        <v>78.4923095703125</v>
+      </c>
+      <c r="C191">
+        <v>45.79173636769224</v>
+      </c>
+      <c r="D191">
+        <v>2096.883119568229</v>
+      </c>
+      <c r="E191">
+        <v>18</v>
+      </c>
+      <c r="F191">
+        <v>35</v>
+      </c>
+      <c r="G191">
+        <v>67</v>
+      </c>
+      <c r="H191">
+        <v>133</v>
+      </c>
+      <c r="I191">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192">
+        <v>77.2783203125</v>
+      </c>
+      <c r="C192">
+        <v>44.63293274326243</v>
+      </c>
+      <c r="D192">
+        <v>1992.098685264587</v>
+      </c>
+      <c r="E192">
+        <v>18</v>
+      </c>
+      <c r="F192">
+        <v>33</v>
+      </c>
+      <c r="G192">
+        <v>67</v>
+      </c>
+      <c r="H192">
+        <v>125</v>
+      </c>
+      <c r="I192">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <v>61.3603515625</v>
+      </c>
+      <c r="C193">
+        <v>57.60430549020808</v>
+      </c>
+      <c r="D193">
+        <v>3318.256011009216</v>
+      </c>
+      <c r="E193">
+        <v>15</v>
+      </c>
+      <c r="F193">
+        <v>27</v>
+      </c>
+      <c r="G193">
+        <v>27</v>
+      </c>
+      <c r="H193">
+        <v>61</v>
+      </c>
+      <c r="I193">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194">
+        <v>83.1580810546875</v>
+      </c>
+      <c r="C194">
+        <v>63.66924868532364</v>
+      </c>
+      <c r="D194">
+        <v>4053.773228153586</v>
+      </c>
+      <c r="E194">
+        <v>14</v>
+      </c>
+      <c r="F194">
+        <v>26</v>
+      </c>
+      <c r="G194">
+        <v>56</v>
+      </c>
+      <c r="H194">
+        <v>134</v>
+      </c>
+      <c r="I194">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195">
+        <v>57.25555419921875</v>
+      </c>
+      <c r="C195">
+        <v>55.15533539574996</v>
+      </c>
+      <c r="D195">
+        <v>3042.111022617668</v>
+      </c>
+      <c r="E195">
+        <v>17</v>
+      </c>
+      <c r="F195">
+        <v>27</v>
+      </c>
+      <c r="G195">
+        <v>27</v>
+      </c>
+      <c r="H195">
+        <v>67</v>
+      </c>
+      <c r="I195">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196">
+        <v>54.28814697265625</v>
+      </c>
+      <c r="C196">
+        <v>52.73280244075544</v>
+      </c>
+      <c r="D196">
+        <v>2780.748453255743</v>
+      </c>
+      <c r="E196">
+        <v>14</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196">
+        <v>25</v>
+      </c>
+      <c r="H196">
+        <v>61</v>
+      </c>
+      <c r="I196">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197">
+        <v>77.2027587890625</v>
+      </c>
+      <c r="C197">
+        <v>69.27244339048191</v>
+      </c>
+      <c r="D197">
+        <v>4798.67141328752</v>
+      </c>
+      <c r="E197">
+        <v>16</v>
+      </c>
+      <c r="F197">
+        <v>27</v>
+      </c>
+      <c r="G197">
+        <v>32</v>
+      </c>
+      <c r="H197">
+        <v>134</v>
+      </c>
+      <c r="I197">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198">
+        <v>65.0555419921875</v>
+      </c>
+      <c r="C198">
+        <v>60.41903209669257</v>
+      </c>
+      <c r="D198">
+        <v>3650.459439501166</v>
+      </c>
+      <c r="E198">
+        <v>14</v>
+      </c>
+      <c r="F198">
+        <v>27</v>
+      </c>
+      <c r="G198">
+        <v>27</v>
+      </c>
+      <c r="H198">
+        <v>86</v>
+      </c>
+      <c r="I198">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199">
+        <v>58.92193603515625</v>
+      </c>
+      <c r="C199">
+        <v>56.01973439652527</v>
+      </c>
+      <c r="D199">
+        <v>3138.210641857237</v>
+      </c>
+      <c r="E199">
+        <v>16</v>
+      </c>
+      <c r="F199">
+        <v>27</v>
+      </c>
+      <c r="G199">
+        <v>27</v>
+      </c>
+      <c r="H199">
+        <v>58</v>
+      </c>
+      <c r="I199">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>197</v>
+      </c>
+      <c r="B200">
+        <v>60.00372314453125</v>
+      </c>
+      <c r="C200">
+        <v>58.88363021693647</v>
+      </c>
+      <c r="D200">
+        <v>3467.281907524914</v>
+      </c>
+      <c r="E200">
+        <v>17</v>
+      </c>
+      <c r="F200">
+        <v>27</v>
+      </c>
+      <c r="G200">
+        <v>27</v>
+      </c>
+      <c r="H200">
+        <v>63</v>
+      </c>
+      <c r="I200">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>198</v>
+      </c>
+      <c r="B201">
+        <v>89.8087158203125</v>
+      </c>
+      <c r="C201">
+        <v>61.67807625121021</v>
+      </c>
+      <c r="D201">
+        <v>3804.185090050101</v>
+      </c>
+      <c r="E201">
+        <v>18</v>
+      </c>
+      <c r="F201">
+        <v>26</v>
+      </c>
+      <c r="G201">
+        <v>89</v>
+      </c>
+      <c r="H201">
+        <v>147</v>
+      </c>
+      <c r="I201">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202">
+        <v>95.2691650390625</v>
+      </c>
+      <c r="C202">
+        <v>62.08916877590897</v>
+      </c>
+      <c r="D202">
+        <v>3855.064879283309</v>
+      </c>
+      <c r="E202">
+        <v>18</v>
+      </c>
+      <c r="F202">
+        <v>28</v>
+      </c>
+      <c r="G202">
+        <v>103</v>
+      </c>
+      <c r="H202">
+        <v>149</v>
+      </c>
+      <c r="I202">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>88.31927490234375</v>
+      </c>
+      <c r="C203">
+        <v>61.10235556848199</v>
+      </c>
+      <c r="D203">
+        <v>3733.497856017202</v>
+      </c>
+      <c r="E203">
+        <v>19</v>
+      </c>
+      <c r="F203">
+        <v>27</v>
+      </c>
+      <c r="G203">
+        <v>85</v>
+      </c>
+      <c r="H203">
+        <v>143</v>
+      </c>
+      <c r="I203">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>201</v>
+      </c>
+      <c r="B204">
+        <v>93.2197265625</v>
+      </c>
+      <c r="C204">
+        <v>64.07047443906676</v>
+      </c>
+      <c r="D204">
+        <v>4105.025694847107</v>
+      </c>
+      <c r="E204">
+        <v>19</v>
+      </c>
+      <c r="F204">
+        <v>28</v>
+      </c>
+      <c r="G204">
+        <v>89</v>
+      </c>
+      <c r="H204">
+        <v>152</v>
+      </c>
+      <c r="I204">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205">
+        <v>94.58111572265625</v>
+      </c>
+      <c r="C205">
+        <v>62.79061934135375</v>
+      </c>
+      <c r="D205">
+        <v>3942.661877270788</v>
+      </c>
+      <c r="E205">
+        <v>18</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205">
+        <v>98</v>
+      </c>
+      <c r="H205">
+        <v>150</v>
+      </c>
+      <c r="I205">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>203</v>
+      </c>
+      <c r="B206">
+        <v>87.22991943359375</v>
+      </c>
+      <c r="C206">
+        <v>60.94229392876633</v>
+      </c>
+      <c r="D206">
+        <v>3713.96318930015</v>
+      </c>
+      <c r="E206">
+        <v>17</v>
+      </c>
+      <c r="F206">
+        <v>26</v>
+      </c>
+      <c r="G206">
+        <v>82</v>
+      </c>
+      <c r="H206">
+        <v>143</v>
+      </c>
+      <c r="I206">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>204</v>
+      </c>
+      <c r="B207">
+        <v>82.63397216796875</v>
+      </c>
+      <c r="C207">
+        <v>62.63051213651097</v>
+      </c>
+      <c r="D207">
+        <v>3922.581050481647</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+      <c r="F207">
+        <v>25</v>
+      </c>
+      <c r="G207">
+        <v>57</v>
+      </c>
+      <c r="H207">
+        <v>144</v>
+      </c>
+      <c r="I207">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <v>51.0050048828125</v>
+      </c>
+      <c r="C208">
+        <v>43.74150837624685</v>
+      </c>
+      <c r="D208">
+        <v>1913.319555029273</v>
+      </c>
+      <c r="E208">
+        <v>20</v>
+      </c>
+      <c r="F208">
+        <v>26</v>
+      </c>
+      <c r="G208">
+        <v>26</v>
+      </c>
+      <c r="H208">
+        <v>70</v>
+      </c>
+      <c r="I208">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209">
+        <v>44.947509765625</v>
+      </c>
+      <c r="C209">
+        <v>38.10391711698559</v>
+      </c>
+      <c r="D209">
+        <v>1451.908499658108</v>
+      </c>
+      <c r="E209">
+        <v>16</v>
+      </c>
+      <c r="F209">
+        <v>26</v>
+      </c>
+      <c r="G209">
+        <v>26</v>
+      </c>
+      <c r="H209">
+        <v>26</v>
+      </c>
+      <c r="I209">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>207</v>
+      </c>
+      <c r="B210">
+        <v>47.6724853515625</v>
+      </c>
+      <c r="C210">
+        <v>38.96055490681885</v>
+      </c>
+      <c r="D210">
+        <v>1517.924838647246</v>
+      </c>
+      <c r="E210">
+        <v>18</v>
+      </c>
+      <c r="F210">
+        <v>26</v>
+      </c>
+      <c r="G210">
+        <v>26</v>
+      </c>
+      <c r="H210">
+        <v>55</v>
+      </c>
+      <c r="I210">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="B211">
+        <v>75.2369384765625</v>
+      </c>
+      <c r="C211">
+        <v>48.22249800933053</v>
+      </c>
+      <c r="D211">
+        <v>2325.409314259887</v>
+      </c>
+      <c r="E211">
+        <v>14</v>
+      </c>
+      <c r="F211">
+        <v>25</v>
+      </c>
+      <c r="G211">
+        <v>76</v>
+      </c>
+      <c r="H211">
+        <v>122</v>
+      </c>
+      <c r="I211">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212">
+        <v>43.1732177734375</v>
+      </c>
+      <c r="C212">
+        <v>35.74467153932915</v>
+      </c>
+      <c r="D212">
+        <v>1277.681543454528</v>
+      </c>
+      <c r="E212">
+        <v>20</v>
+      </c>
+      <c r="F212">
+        <v>26</v>
+      </c>
+      <c r="G212">
+        <v>26</v>
+      </c>
+      <c r="H212">
+        <v>29</v>
+      </c>
+      <c r="I212">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>210</v>
+      </c>
+      <c r="B213">
+        <v>44.6031494140625</v>
+      </c>
+      <c r="C213">
+        <v>39.9737322789323</v>
+      </c>
+      <c r="D213">
+        <v>1597.899272307754</v>
+      </c>
+      <c r="E213">
+        <v>17</v>
+      </c>
+      <c r="F213">
+        <v>25</v>
+      </c>
+      <c r="G213">
+        <v>25</v>
+      </c>
+      <c r="H213">
+        <v>27</v>
+      </c>
+      <c r="I213">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <v>79.2572021484375</v>
+      </c>
+      <c r="C214">
+        <v>51.67961023127401</v>
+      </c>
+      <c r="D214">
+        <v>2670.782113656402</v>
+      </c>
+      <c r="E214">
+        <v>15</v>
+      </c>
+      <c r="F214">
+        <v>28</v>
+      </c>
+      <c r="G214">
+        <v>72</v>
+      </c>
+      <c r="H214">
+        <v>126</v>
+      </c>
+      <c r="I214">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>212</v>
+      </c>
+      <c r="B215">
+        <v>88.4493408203125</v>
+      </c>
+      <c r="C215">
+        <v>60.59027675913914</v>
+      </c>
+      <c r="D215">
+        <v>3671.181637749076</v>
+      </c>
+      <c r="E215">
+        <v>25</v>
+      </c>
+      <c r="F215">
+        <v>34</v>
+      </c>
+      <c r="G215">
+        <v>37</v>
+      </c>
+      <c r="H215">
+        <v>148</v>
+      </c>
+      <c r="I215">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>213</v>
+      </c>
+      <c r="B216">
+        <v>81.14007568359375</v>
+      </c>
+      <c r="C216">
+        <v>54.64178755013382</v>
+      </c>
+      <c r="D216">
+        <v>2985.724946673959</v>
+      </c>
+      <c r="E216">
+        <v>22</v>
+      </c>
+      <c r="F216">
+        <v>32</v>
+      </c>
+      <c r="G216">
+        <v>34</v>
+      </c>
+      <c r="H216">
+        <v>135</v>
+      </c>
+      <c r="I216">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <v>69.59210205078125</v>
+      </c>
+      <c r="C217">
+        <v>51.9879999358451</v>
+      </c>
+      <c r="D217">
+        <v>2702.752137329429</v>
+      </c>
+      <c r="E217">
+        <v>19</v>
+      </c>
+      <c r="F217">
+        <v>30</v>
+      </c>
+      <c r="G217">
+        <v>30</v>
+      </c>
+      <c r="H217">
+        <v>114</v>
+      </c>
+      <c r="I217">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <v>81.81103515625</v>
+      </c>
+      <c r="C218">
+        <v>55.00102258728651</v>
+      </c>
+      <c r="D218">
+        <v>3025.112485647202</v>
+      </c>
+      <c r="E218">
+        <v>22</v>
+      </c>
+      <c r="F218">
+        <v>33</v>
+      </c>
+      <c r="G218">
+        <v>34.5</v>
+      </c>
+      <c r="H218">
+        <v>131</v>
+      </c>
+      <c r="I218">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>85.0794677734375</v>
+      </c>
+      <c r="C219">
+        <v>58.19289682200954</v>
+      </c>
+      <c r="D219">
+        <v>3386.413240537047</v>
+      </c>
+      <c r="E219">
+        <v>24</v>
+      </c>
+      <c r="F219">
+        <v>35</v>
+      </c>
+      <c r="G219">
+        <v>35</v>
+      </c>
+      <c r="H219">
+        <v>139</v>
+      </c>
+      <c r="I219">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <v>71.4090576171875</v>
+      </c>
+      <c r="C220">
+        <v>49.73517299264182</v>
+      </c>
+      <c r="D220">
+        <v>2473.587432608008</v>
+      </c>
+      <c r="E220">
+        <v>20</v>
+      </c>
+      <c r="F220">
+        <v>31</v>
+      </c>
+      <c r="G220">
+        <v>31</v>
+      </c>
+      <c r="H220">
+        <v>120</v>
+      </c>
+      <c r="I220">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>218</v>
+      </c>
+      <c r="B221">
+        <v>89.9476318359375</v>
+      </c>
+      <c r="C221">
+        <v>65.06428099115294</v>
+      </c>
+      <c r="D221">
+        <v>4233.360660895705</v>
+      </c>
+      <c r="E221">
+        <v>23</v>
+      </c>
+      <c r="F221">
+        <v>35</v>
+      </c>
+      <c r="G221">
+        <v>35</v>
+      </c>
+      <c r="H221">
+        <v>157</v>
+      </c>
+      <c r="I221">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
